--- a/Financial/SL_FinancialReport.xlsx
+++ b/Financial/SL_FinancialReport.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theta\Documents\SMU YR2S2\COR1305 - Spreadsheet Modelling &amp; Analytics\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\soiSMA\Financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667E4B0-0D72-47F9-8888-314F52748E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7423DC-4817-4C98-ACB5-96F96B24BD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="3" r:id="rId2"/>
+    <sheet name="2019-Qtr" sheetId="4" r:id="rId3"/>
+    <sheet name="2018-Qtr" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="34">
   <si>
     <t>JAN</t>
   </si>
@@ -121,6 +123,21 @@
   </si>
   <si>
     <t>Net Profit Before Adjustments</t>
+  </si>
+  <si>
+    <t>QTR 1</t>
+  </si>
+  <si>
+    <t>QTR 2</t>
+  </si>
+  <si>
+    <t>QTR 3</t>
+  </si>
+  <si>
+    <t>QTR 4</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -335,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,6 +397,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -697,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC5629-EF17-4750-AB17-EAF6EF4D90D7}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -2716,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524424A0-4900-48B7-BD78-D69A5DACE18A}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3456,4 +3478,1496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE919156-D2C9-4B06-9340-B05C5DC9D408}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34">
+        <f>SUM('2019'!C2:E2)</f>
+        <v>29</v>
+      </c>
+      <c r="D2" s="34">
+        <f>SUM('2019'!F2:H2)</f>
+        <v>98.9</v>
+      </c>
+      <c r="E2" s="34">
+        <f>SUM('2019'!I2:K2)</f>
+        <v>253.6</v>
+      </c>
+      <c r="F2" s="34">
+        <f>SUM('2019'!L2:N2)</f>
+        <v>269.89999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="34">
+        <f>SUM('2019'!C3:E3)</f>
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="34">
+        <f>SUM('2019'!F3:H3)</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="E3" s="34">
+        <f>SUM('2019'!I3:K3)</f>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="F3" s="34">
+        <f>SUM('2019'!L3:N3)</f>
+        <v>10.120000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="34">
+        <f>SUM('2019'!C4:E4)</f>
+        <v>5.8</v>
+      </c>
+      <c r="D4" s="34">
+        <f>SUM('2019'!F4:H4)</f>
+        <v>19.78</v>
+      </c>
+      <c r="E4" s="34">
+        <f>SUM('2019'!I4:K4)</f>
+        <v>50.72</v>
+      </c>
+      <c r="F4" s="34">
+        <f>SUM('2019'!L4:N4)</f>
+        <v>53.980000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="36">
+        <f>SUM('2019'!C5:E5)</f>
+        <v>22.5</v>
+      </c>
+      <c r="D5" s="36">
+        <f>SUM('2019'!F5:H5)</f>
+        <v>76.36</v>
+      </c>
+      <c r="E5" s="36">
+        <f>SUM('2019'!I5:K5)</f>
+        <v>199.54</v>
+      </c>
+      <c r="F5" s="36">
+        <f>SUM('2019'!L5:N5)</f>
+        <v>205.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="34">
+        <f>SUM('2019'!C7:E7)</f>
+        <v>9922.6999999999989</v>
+      </c>
+      <c r="D7" s="34">
+        <f>SUM('2019'!F7:H7)</f>
+        <v>7795.2</v>
+      </c>
+      <c r="E7" s="34">
+        <f>SUM('2019'!I7:K7)</f>
+        <v>9655.4000000000015</v>
+      </c>
+      <c r="F7" s="34">
+        <f>SUM('2019'!L7:N7)</f>
+        <v>10558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="34">
+        <f>SUM('2019'!C8:E8)</f>
+        <v>555.42000000000007</v>
+      </c>
+      <c r="D8" s="34">
+        <f>SUM('2019'!F8:H8)</f>
+        <v>179.62</v>
+      </c>
+      <c r="E8" s="34">
+        <f>SUM('2019'!I8:K8)</f>
+        <v>193.68999999999997</v>
+      </c>
+      <c r="F8" s="34">
+        <f>SUM('2019'!L8:N8)</f>
+        <v>101.28999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="34">
+        <f>SUM('2019'!C9:E9)</f>
+        <v>1984.54</v>
+      </c>
+      <c r="D9" s="34">
+        <f>SUM('2019'!F9:H9)</f>
+        <v>1559.04</v>
+      </c>
+      <c r="E9" s="34">
+        <f>SUM('2019'!I9:K9)</f>
+        <v>1931.08</v>
+      </c>
+      <c r="F9" s="34">
+        <f>SUM('2019'!L9:N9)</f>
+        <v>2111.6000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="36">
+        <f>SUM('2019'!C10:E10)</f>
+        <v>7382.74</v>
+      </c>
+      <c r="D10" s="36">
+        <f>SUM('2019'!F10:H10)</f>
+        <v>6056.54</v>
+      </c>
+      <c r="E10" s="36">
+        <f>SUM('2019'!I10:K10)</f>
+        <v>7530.6299999999992</v>
+      </c>
+      <c r="F10" s="36">
+        <f>SUM('2019'!L10:N10)</f>
+        <v>8345.1099999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="34">
+        <f>SUM('2019'!C12:E12)</f>
+        <v>4837.3999999999996</v>
+      </c>
+      <c r="D12" s="34">
+        <f>SUM('2019'!F12:H12)</f>
+        <v>3692.1</v>
+      </c>
+      <c r="E12" s="34">
+        <f>SUM('2019'!I12:K12)</f>
+        <v>2002.5</v>
+      </c>
+      <c r="F12" s="34">
+        <f>SUM('2019'!L12:N12)</f>
+        <v>3639.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="34">
+        <f>SUM('2019'!C13:E13)</f>
+        <v>368.28000000000003</v>
+      </c>
+      <c r="D13" s="34">
+        <f>SUM('2019'!F13:H13)</f>
+        <v>145.75</v>
+      </c>
+      <c r="E13" s="34">
+        <f>SUM('2019'!I13:K13)</f>
+        <v>29.33</v>
+      </c>
+      <c r="F13" s="34">
+        <f>SUM('2019'!L13:N13)</f>
+        <v>59.609999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="34">
+        <f>SUM('2019'!C14:E14)</f>
+        <v>967.48</v>
+      </c>
+      <c r="D14" s="34">
+        <f>SUM('2019'!F14:H14)</f>
+        <v>738.42000000000007</v>
+      </c>
+      <c r="E14" s="34">
+        <f>SUM('2019'!I14:K14)</f>
+        <v>400.5</v>
+      </c>
+      <c r="F14" s="34">
+        <f>SUM('2019'!L14:N14)</f>
+        <v>727.90000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="36">
+        <f>SUM('2019'!C15:E15)</f>
+        <v>3501.64</v>
+      </c>
+      <c r="D15" s="36">
+        <f>SUM('2019'!F15:H15)</f>
+        <v>2807.9300000000003</v>
+      </c>
+      <c r="E15" s="36">
+        <f>SUM('2019'!I15:K15)</f>
+        <v>1572.67</v>
+      </c>
+      <c r="F15" s="36">
+        <f>SUM('2019'!L15:N15)</f>
+        <v>2851.9900000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="34">
+        <f>SUM('2019'!C17:E17)</f>
+        <v>2366.1999999999998</v>
+      </c>
+      <c r="D17" s="34">
+        <f>SUM('2019'!F17:H17)</f>
+        <v>1949.6</v>
+      </c>
+      <c r="E17" s="34">
+        <f>SUM('2019'!I17:K17)</f>
+        <v>885.59999999999991</v>
+      </c>
+      <c r="F17" s="34">
+        <f>SUM('2019'!L17:N17)</f>
+        <v>1217.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="34">
+        <f>SUM('2019'!C18:E18)</f>
+        <v>64.539999999999992</v>
+      </c>
+      <c r="D18" s="34">
+        <f>SUM('2019'!F18:H18)</f>
+        <v>26.889999999999997</v>
+      </c>
+      <c r="E18" s="34">
+        <f>SUM('2019'!I18:K18)</f>
+        <v>14.29</v>
+      </c>
+      <c r="F18" s="34">
+        <f>SUM('2019'!L18:N18)</f>
+        <v>42.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="34">
+        <f>SUM('2019'!C19:E19)</f>
+        <v>473.24000000000012</v>
+      </c>
+      <c r="D19" s="34">
+        <f>SUM('2019'!F19:H19)</f>
+        <v>389.92000000000007</v>
+      </c>
+      <c r="E19" s="34">
+        <f>SUM('2019'!I19:K19)</f>
+        <v>177.12</v>
+      </c>
+      <c r="F19" s="34">
+        <f>SUM('2019'!L19:N19)</f>
+        <v>243.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="36">
+        <f>SUM('2019'!C20:E20)</f>
+        <v>1828.42</v>
+      </c>
+      <c r="D20" s="36">
+        <f>SUM('2019'!F20:H20)</f>
+        <v>1532.79</v>
+      </c>
+      <c r="E20" s="36">
+        <f>SUM('2019'!I20:K20)</f>
+        <v>694.18999999999994</v>
+      </c>
+      <c r="F20" s="36">
+        <f>SUM('2019'!L20:N20)</f>
+        <v>931.59999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="34">
+        <f>SUM('2019'!C22:E22)</f>
+        <v>18741.099999999999</v>
+      </c>
+      <c r="D22" s="34">
+        <f>SUM('2019'!F22:H22)</f>
+        <v>15778.099999999999</v>
+      </c>
+      <c r="E22" s="34">
+        <f>SUM('2019'!I22:K22)</f>
+        <v>5450.2000000000007</v>
+      </c>
+      <c r="F22" s="34">
+        <f>SUM('2019'!L22:N22)</f>
+        <v>5200.8999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="34">
+        <f>SUM('2019'!C23:E23)</f>
+        <v>631.38000000000011</v>
+      </c>
+      <c r="D23" s="34">
+        <f>SUM('2019'!F23:H23)</f>
+        <v>379.27</v>
+      </c>
+      <c r="E23" s="34">
+        <f>SUM('2019'!I23:K23)</f>
+        <v>72.570000000000007</v>
+      </c>
+      <c r="F23" s="34">
+        <f>SUM('2019'!L23:N23)</f>
+        <v>40.379999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="34">
+        <f>SUM('2019'!C24:E24)</f>
+        <v>2534.7975000000001</v>
+      </c>
+      <c r="D24" s="34">
+        <f>SUM('2019'!F24:H24)</f>
+        <v>2868.6915000000004</v>
+      </c>
+      <c r="E24" s="34">
+        <f>SUM('2019'!I24:K24)</f>
+        <v>2020.2695000000003</v>
+      </c>
+      <c r="F24" s="34">
+        <f>SUM('2019'!L24:N24)</f>
+        <v>1802.2550000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="36">
+        <f>SUM('2019'!C25:E25)</f>
+        <v>15574.922499999999</v>
+      </c>
+      <c r="D25" s="36">
+        <f>SUM('2019'!F25:H25)</f>
+        <v>12530.138500000001</v>
+      </c>
+      <c r="E25" s="36">
+        <f>SUM('2019'!I25:K25)</f>
+        <v>3357.3604999999998</v>
+      </c>
+      <c r="F25" s="36">
+        <f>SUM('2019'!L25:N25)</f>
+        <v>3358.2649999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="34">
+        <f>SUM('2019'!C27:E27)</f>
+        <v>5280</v>
+      </c>
+      <c r="D27" s="34">
+        <f>SUM('2019'!F27:H27)</f>
+        <v>2302</v>
+      </c>
+      <c r="E27" s="34">
+        <f>SUM('2019'!I27:K27)</f>
+        <v>1318</v>
+      </c>
+      <c r="F27" s="34">
+        <f>SUM('2019'!L27:N27)</f>
+        <v>1585.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="34">
+        <f>SUM('2019'!C28:E28)</f>
+        <v>263.95</v>
+      </c>
+      <c r="D28" s="34">
+        <f>SUM('2019'!F28:H28)</f>
+        <v>21.549999999999997</v>
+      </c>
+      <c r="E28" s="34">
+        <f>SUM('2019'!I28:K28)</f>
+        <v>2.54</v>
+      </c>
+      <c r="F28" s="34">
+        <f>SUM('2019'!L28:N28)</f>
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="34">
+        <f>SUM('2019'!C29:E29)</f>
+        <v>1056</v>
+      </c>
+      <c r="D29" s="34">
+        <f>SUM('2019'!F29:H29)</f>
+        <v>460.40000000000003</v>
+      </c>
+      <c r="E29" s="34">
+        <f>SUM('2019'!I29:K29)</f>
+        <v>263.60000000000002</v>
+      </c>
+      <c r="F29" s="34">
+        <f>SUM('2019'!L29:N29)</f>
+        <v>317.10000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="36">
+        <f>SUM('2019'!C30:E30)</f>
+        <v>3960.05</v>
+      </c>
+      <c r="D30" s="36">
+        <f>SUM('2019'!F30:H30)</f>
+        <v>1820.0500000000002</v>
+      </c>
+      <c r="E30" s="36">
+        <f>SUM('2019'!I30:K30)</f>
+        <v>1051.8599999999999</v>
+      </c>
+      <c r="F30" s="36">
+        <f>SUM('2019'!L30:N30)</f>
+        <v>1184.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="34">
+        <f>SUM('2019'!C32:E32)</f>
+        <v>11432.899999999998</v>
+      </c>
+      <c r="D32" s="34">
+        <f>SUM('2019'!F32:H32)</f>
+        <v>9705.3999999999978</v>
+      </c>
+      <c r="E32" s="34">
+        <f>SUM('2019'!I32:K32)</f>
+        <v>9181.2999999999993</v>
+      </c>
+      <c r="F32" s="34">
+        <f>SUM('2019'!L32:N32)</f>
+        <v>11176.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="34">
+        <f>SUM('2019'!C33:E33)</f>
+        <v>678.01</v>
+      </c>
+      <c r="D33" s="34">
+        <f>SUM('2019'!F33:H33)</f>
+        <v>341.04</v>
+      </c>
+      <c r="E33" s="34">
+        <f>SUM('2019'!I33:K33)</f>
+        <v>187.60000000000002</v>
+      </c>
+      <c r="F33" s="34">
+        <f>SUM('2019'!L33:N33)</f>
+        <v>163.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="34">
+        <f>SUM('2019'!C34:E34)</f>
+        <v>2286.58</v>
+      </c>
+      <c r="D34" s="34">
+        <f>SUM('2019'!F34:H34)</f>
+        <v>1941.08</v>
+      </c>
+      <c r="E34" s="34">
+        <f>SUM('2019'!I34:K34)</f>
+        <v>1836.2600000000002</v>
+      </c>
+      <c r="F34" s="34">
+        <f>SUM('2019'!L34:N34)</f>
+        <v>2235.2800000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="36">
+        <f>SUM('2019'!C35:E35)</f>
+        <v>8468.31</v>
+      </c>
+      <c r="D35" s="36">
+        <f>SUM('2019'!F35:H35)</f>
+        <v>7423.2799999999988</v>
+      </c>
+      <c r="E35" s="36">
+        <f>SUM('2019'!I35:K35)</f>
+        <v>7157.4400000000005</v>
+      </c>
+      <c r="F35" s="36">
+        <f>SUM('2019'!L35:N35)</f>
+        <v>8777.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="34">
+        <f>SUM('2019'!C37:E37)</f>
+        <v>533</v>
+      </c>
+      <c r="D37" s="34">
+        <f>SUM('2019'!F37:H37)</f>
+        <v>633.79999999999995</v>
+      </c>
+      <c r="E37" s="34">
+        <f>SUM('2019'!I37:K37)</f>
+        <v>3489.2</v>
+      </c>
+      <c r="F37" s="34">
+        <f>SUM('2019'!L37:N37)</f>
+        <v>6346.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="34">
+        <f>SUM('2019'!C38:E38)</f>
+        <v>79.760000000000019</v>
+      </c>
+      <c r="D38" s="34">
+        <f>SUM('2019'!F38:H38)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E38" s="34">
+        <f>SUM('2019'!I38:K38)</f>
+        <v>64.699999999999989</v>
+      </c>
+      <c r="F38" s="34">
+        <f>SUM('2019'!L38:N38)</f>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="34">
+        <f>SUM('2019'!C39:E39)</f>
+        <v>106.60000000000002</v>
+      </c>
+      <c r="D39" s="34">
+        <f>SUM('2019'!F39:H39)</f>
+        <v>126.76</v>
+      </c>
+      <c r="E39" s="34">
+        <f>SUM('2019'!I39:K39)</f>
+        <v>697.83999999999992</v>
+      </c>
+      <c r="F39" s="34">
+        <f>SUM('2019'!L39:N39)</f>
+        <v>1269.2800000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="34">
+        <f>SUM('2019'!C40:E40)</f>
+        <v>346.64</v>
+      </c>
+      <c r="D40" s="34">
+        <f>SUM('2019'!F40:H40)</f>
+        <v>497.74</v>
+      </c>
+      <c r="E40" s="34">
+        <f>SUM('2019'!I40:K40)</f>
+        <v>2726.66</v>
+      </c>
+      <c r="F40" s="34">
+        <f>SUM('2019'!L40:N40)</f>
+        <v>4993.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="34">
+        <f>SUM('2019'!C42:E42)</f>
+        <v>16757.400000000001</v>
+      </c>
+      <c r="D42" s="34">
+        <f>SUM('2019'!F42:H42)</f>
+        <v>13093.399999999998</v>
+      </c>
+      <c r="E42" s="34">
+        <f>SUM('2019'!I42:K42)</f>
+        <v>22715.7</v>
+      </c>
+      <c r="F42" s="34">
+        <f>SUM('2019'!L42:N42)</f>
+        <v>24638.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="34">
+        <f>SUM('2019'!C43:E43)</f>
+        <v>601.12</v>
+      </c>
+      <c r="D43" s="34">
+        <f>SUM('2019'!F43:H43)</f>
+        <v>351.69</v>
+      </c>
+      <c r="E43" s="34">
+        <f>SUM('2019'!I43:K43)</f>
+        <v>450.91999999999996</v>
+      </c>
+      <c r="F43" s="34">
+        <f>SUM('2019'!L43:N43)</f>
+        <v>214.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="31"/>
+      <c r="B44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="34">
+        <f>SUM('2019'!C44:E44)</f>
+        <v>8394.5745000000006</v>
+      </c>
+      <c r="D44" s="34">
+        <f>SUM('2019'!F44:H44)</f>
+        <v>8521.6005000000023</v>
+      </c>
+      <c r="E44" s="34">
+        <f>SUM('2019'!I44:K44)</f>
+        <v>8078.201500000001</v>
+      </c>
+      <c r="F44" s="34">
+        <f>SUM('2019'!L44:N44)</f>
+        <v>6782.7640000000019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="36">
+        <f>SUM('2019'!C45:E45)</f>
+        <v>7761.7054999999982</v>
+      </c>
+      <c r="D45" s="36">
+        <f>SUM('2019'!F45:H45)</f>
+        <v>4220.1094999999987</v>
+      </c>
+      <c r="E45" s="36">
+        <f>SUM('2019'!I45:K45)</f>
+        <v>14186.5785</v>
+      </c>
+      <c r="F45" s="36">
+        <f>SUM('2019'!L45:N45)</f>
+        <v>17641.255999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="34">
+        <f>SUM('2019'!C47:E47)</f>
+        <v>48846.928</v>
+      </c>
+      <c r="D47" s="34">
+        <f>SUM('2019'!F47:H47)</f>
+        <v>36964.937999999995</v>
+      </c>
+      <c r="E47" s="34">
+        <f>SUM('2019'!I47:K47)</f>
+        <v>38476.929000000004</v>
+      </c>
+      <c r="F47" s="34">
+        <f>SUM('2019'!L47:N47)</f>
+        <v>48289.750999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="34">
+        <f>SUM('2019'!C48:E48)</f>
+        <v>66000</v>
+      </c>
+      <c r="D48" s="34">
+        <f>SUM('2019'!F48:H48)</f>
+        <v>66000</v>
+      </c>
+      <c r="E48" s="34">
+        <f>SUM('2019'!I48:K48)</f>
+        <v>66000</v>
+      </c>
+      <c r="F48" s="34">
+        <f>SUM('2019'!L48:N48)</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="32"/>
+      <c r="B49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="35">
+        <f>SUM('2019'!C49:E49)</f>
+        <v>-17153.072000000004</v>
+      </c>
+      <c r="D49" s="35">
+        <f>SUM('2019'!F49:H49)</f>
+        <v>-29035.062000000005</v>
+      </c>
+      <c r="E49" s="35">
+        <f>SUM('2019'!I49:K49)</f>
+        <v>-27523.071</v>
+      </c>
+      <c r="F49" s="35">
+        <f>SUM('2019'!L49:N49)</f>
+        <v>-17710.249000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275B154-43D1-4CDC-9D9D-8221673A9FE2}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="37">
+        <f>SUM('2018'!C2:E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="37">
+        <f>SUM('2018'!C3:E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="37">
+        <f>SUM('2018'!C4:E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="38">
+        <f>SUM('2018'!C5:E5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="37">
+        <f>SUM('2018'!C7:E7)</f>
+        <v>9368.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="37">
+        <f>SUM('2018'!C8:E8)</f>
+        <v>623.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="37">
+        <f>SUM('2018'!C9:E9)</f>
+        <v>1873.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="38">
+        <f>SUM('2018'!C10:E10)</f>
+        <v>6871.1100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37">
+        <f>SUM('2018'!C12:E12)</f>
+        <v>4196.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="37">
+        <f>SUM('2018'!C13:E13)</f>
+        <v>391.98999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="37">
+        <f>SUM('2018'!C14:E14)</f>
+        <v>839.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="38">
+        <f>SUM('2018'!C15:E15)</f>
+        <v>2965.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="37">
+        <f>SUM('2018'!C17:E17)</f>
+        <v>2570.1999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="37">
+        <f>SUM('2018'!C18:E18)</f>
+        <v>88.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="37">
+        <f>SUM('2018'!C19:E19)</f>
+        <v>514.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="38">
+        <f>SUM('2018'!C20:E20)</f>
+        <v>1967.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="37">
+        <f>SUM('2018'!C22:E22)</f>
+        <v>16953.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="37">
+        <f>SUM('2018'!C23:E23)</f>
+        <v>786.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="37">
+        <f>SUM('2018'!C24:E24)</f>
+        <v>2745.7534999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="38">
+        <f>SUM('2018'!C25:E25)</f>
+        <v>13421.686500000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37">
+        <f>SUM('2018'!C27:E27)</f>
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="37">
+        <f>SUM('2018'!C28:E28)</f>
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="37">
+        <f>SUM('2018'!C29:E29)</f>
+        <v>264.40000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="38">
+        <f>SUM('2018'!C30:E30)</f>
+        <v>998.69999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="37">
+        <f>SUM('2018'!C32:E32)</f>
+        <v>7796.2999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="37">
+        <f>SUM('2018'!C33:E33)</f>
+        <v>670.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="37">
+        <f>SUM('2018'!C34:E34)</f>
+        <v>1559.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="38">
+        <f>SUM('2018'!C35:E35)</f>
+        <v>5566.4699999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="37">
+        <f>SUM('2018'!C37:E37)</f>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="37">
+        <f>SUM('2018'!C38:E38)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="37">
+        <f>SUM('2018'!C39:E39)</f>
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="38">
+        <f>SUM('2018'!C40:E40)</f>
+        <v>329.59999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="37">
+        <f>SUM('2018'!C42:E42)</f>
+        <v>14292.900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="37">
+        <f>SUM('2018'!C43:E43)</f>
+        <v>848.36000000000013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="31"/>
+      <c r="B44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="37">
+        <f>SUM('2018'!C44:E44)</f>
+        <v>8794.4370000000017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="38">
+        <f>SUM('2018'!C45:E45)</f>
+        <v>4650.1029999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="37">
+        <f>SUM('2018'!C47:E47)</f>
+        <v>36770.859499999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="37">
+        <f>SUM('2018'!C48:E48)</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="32"/>
+      <c r="B49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="35">
+        <f>SUM('2018'!C49:E49)</f>
+        <v>-29229.140500000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Financial/SL_FinancialReport.xlsx
+++ b/Financial/SL_FinancialReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theta\Documents\SMU YR2S2\COR1305 - Spreadsheet Modelling &amp; Analytics\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667E4B0-0D72-47F9-8888-314F52748E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584BE768-D95D-4758-BD9C-76EFE3F2B8AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Financial/SL_FinancialReport.xlsx
+++ b/Financial/SL_FinancialReport.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\soiSMA\Financial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7423DC-4817-4C98-ACB5-96F96B24BD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A543A954-4062-45A6-8602-4F13A446087C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{6F11DF04-E798-4BF6-9476-252EE437DD81}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
-    <sheet name="2018" sheetId="3" r:id="rId2"/>
-    <sheet name="2019-Qtr" sheetId="4" r:id="rId3"/>
-    <sheet name="2018-Qtr" sheetId="5" r:id="rId4"/>
+    <sheet name="2018-New" sheetId="8" r:id="rId1"/>
+    <sheet name="2019-New" sheetId="7" r:id="rId2"/>
+    <sheet name="2019" sheetId="1" r:id="rId3"/>
+    <sheet name="Combined_Data" sheetId="10" r:id="rId4"/>
+    <sheet name="PED" sheetId="11" r:id="rId5"/>
+    <sheet name="2018" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="45">
   <si>
     <t>JAN</t>
   </si>
@@ -125,19 +128,52 @@
     <t>Net Profit Before Adjustments</t>
   </si>
   <si>
-    <t>QTR 1</t>
+    <t>Selling Price</t>
   </si>
   <si>
-    <t>QTR 2</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t>QTR 3</t>
+    <t>Discounts</t>
   </si>
   <si>
-    <t>QTR 4</t>
+    <t>Oct</t>
   </si>
   <si>
-    <t>Q4</t>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>MAR</t>
   </si>
 </sst>
 </file>
@@ -177,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +238,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -347,12 +395,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -397,15 +531,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,11 +925,4042 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D20CA2-454C-4A16-B115-93C2542E9A0E}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1.7</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="E2" s="50">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C2*C3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:E4" si="0">D2*D3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="44"/>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="44"/>
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="26">
+        <f>C4-C5-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:E7" si="1">D4-D5-D6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="48">
+        <v>2.72</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="E9" s="50">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1264</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1176</v>
+      </c>
+      <c r="E10" s="51">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C9*C10</f>
+        <v>3438.0800000000004</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:E11" si="2">D9*D10</f>
+        <v>3198.7200000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>2567.6800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="25">
+        <v>171.90400000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>159.93600000000004</v>
+      </c>
+      <c r="E12" s="5">
+        <v>128.38400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="25">
+        <v>687.6160000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>639.74400000000014</v>
+      </c>
+      <c r="E13" s="5">
+        <v>513.53600000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="26">
+        <f>C11-C12-C13</f>
+        <v>2578.5600000000004</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:E14" si="3">D11-D12-D13</f>
+        <v>2399.04</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="3"/>
+        <v>1925.7600000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="48">
+        <v>3.8</v>
+      </c>
+      <c r="D16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="E16" s="50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="39">
+        <v>314</v>
+      </c>
+      <c r="D17" s="39">
+        <v>300</v>
+      </c>
+      <c r="E17" s="51">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C16*C17</f>
+        <v>1193.2</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:E18" si="4">D16*D17</f>
+        <v>1140</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="4"/>
+        <v>1360.3999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="25">
+        <v>59.660000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5">
+        <v>68.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="25">
+        <v>238.64000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>228</v>
+      </c>
+      <c r="E20" s="5">
+        <v>272.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="26">
+        <f>C18-C19-C20</f>
+        <v>894.9</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" ref="D21:E21" si="5">D18-D19-D20</f>
+        <v>855</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="5"/>
+        <v>1020.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="48">
+        <v>1.9</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="50">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="39">
+        <v>406</v>
+      </c>
+      <c r="D24" s="39">
+        <v>379</v>
+      </c>
+      <c r="E24" s="51">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C23*C24</f>
+        <v>771.4</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:E25" si="6">D23*D24</f>
+        <v>720.1</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="6"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="25">
+        <v>38.57</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36.005000000000003</v>
+      </c>
+      <c r="E26" s="5">
+        <v>35.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25">
+        <v>154.28</v>
+      </c>
+      <c r="D27" s="3">
+        <v>144.02000000000001</v>
+      </c>
+      <c r="E27" s="5">
+        <v>140.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="26">
+        <f>C25-C26-C27</f>
+        <v>578.54999999999995</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" ref="D28:E28" si="7">D25-D26-D27</f>
+        <v>540.07500000000005</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="7"/>
+        <v>527.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="48">
+        <v>5.96</v>
+      </c>
+      <c r="D30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="E30" s="50">
+        <v>5.96</v>
+      </c>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="39">
+        <v>1074</v>
+      </c>
+      <c r="D31" s="39">
+        <v>971</v>
+      </c>
+      <c r="E31" s="51">
+        <v>865</v>
+      </c>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <f>C30*C31</f>
+        <v>6401.04</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:E32" si="8">D30*D31</f>
+        <v>5787.16</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="8"/>
+        <v>5155.3999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="25">
+        <v>320.05200000000002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>289.358</v>
+      </c>
+      <c r="E33" s="5">
+        <v>257.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="25">
+        <v>987.16099999999994</v>
+      </c>
+      <c r="D34" s="3">
+        <v>911.99850000000004</v>
+      </c>
+      <c r="E34" s="5">
+        <v>846.59400000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="26">
+        <f>C32-C33-C34</f>
+        <v>5093.8270000000002</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" ref="D35:E35" si="9">D32-D33-D34</f>
+        <v>4585.8035</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="9"/>
+        <v>4051.0359999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="48">
+        <v>5.39</v>
+      </c>
+      <c r="D37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="E37" s="50">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="39">
+        <v>6</v>
+      </c>
+      <c r="D38" s="39">
+        <v>9</v>
+      </c>
+      <c r="E38" s="51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C37*C38</f>
+        <v>32.339999999999996</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39:E39" si="10">D37*D38</f>
+        <v>48.51</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="10"/>
+        <v>1013.3199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="25">
+        <v>1.617</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.4255</v>
+      </c>
+      <c r="E40" s="5">
+        <v>50.665999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="25">
+        <f>0.2*C39</f>
+        <v>6.468</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" ref="D41:E41" si="11">0.2*D39</f>
+        <v>9.702</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="11"/>
+        <v>202.66399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="26">
+        <f>C39-C40-C41</f>
+        <v>24.254999999999995</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" ref="D42:E42" si="12">D39-D40-D41</f>
+        <v>36.3825</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="12"/>
+        <v>759.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="48">
+        <v>5.52</v>
+      </c>
+      <c r="D44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="E44" s="50">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="39">
+        <v>478</v>
+      </c>
+      <c r="D45" s="39">
+        <v>591</v>
+      </c>
+      <c r="E45" s="51">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2">
+        <f>C44*C45</f>
+        <v>2638.56</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46:E46" si="13">D44*D45</f>
+        <v>3262.3199999999997</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="13"/>
+        <v>3836.3999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="25">
+        <v>131.928</v>
+      </c>
+      <c r="D47" s="3">
+        <v>163.11599999999999</v>
+      </c>
+      <c r="E47" s="5">
+        <v>191.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="25">
+        <v>527.71199999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>652.46399999999994</v>
+      </c>
+      <c r="E48" s="5">
+        <v>767.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="31"/>
+      <c r="B49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="26">
+        <f>C46-C47-C48</f>
+        <v>1978.92</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" ref="D49:E49" si="14">D46-D47-D48</f>
+        <v>2446.7399999999998</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="14"/>
+        <v>2877.2999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="48">
+        <v>5.64</v>
+      </c>
+      <c r="D51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="E51" s="50">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="31"/>
+      <c r="B52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="39">
+        <v>130</v>
+      </c>
+      <c r="D52" s="39">
+        <v>164</v>
+      </c>
+      <c r="E52" s="51">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="31"/>
+      <c r="B53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <f>C51*C52</f>
+        <v>733.19999999999993</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:E53" si="15">D51*D52</f>
+        <v>924.95999999999992</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="15"/>
+        <v>772.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="31"/>
+      <c r="B54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="25">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="D54" s="3">
+        <v>46.247999999999998</v>
+      </c>
+      <c r="E54" s="5">
+        <v>38.634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="31"/>
+      <c r="B55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="25">
+        <v>146.63999999999999</v>
+      </c>
+      <c r="D55" s="3">
+        <v>184.99199999999999</v>
+      </c>
+      <c r="E55" s="5">
+        <v>154.536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="31"/>
+      <c r="B56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="26">
+        <f>C53-C54-C55</f>
+        <v>549.9</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" ref="D56:E56" si="16">D53-D54-D55</f>
+        <v>693.71999999999991</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" si="16"/>
+        <v>579.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="48">
+        <v>7.21</v>
+      </c>
+      <c r="D58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="E58" s="50">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="39">
+        <v>916</v>
+      </c>
+      <c r="D59" s="39">
+        <v>907</v>
+      </c>
+      <c r="E59" s="51">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="31"/>
+      <c r="B60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <f>C58*C59</f>
+        <v>6604.36</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" ref="D60:E60" si="17">D58*D59</f>
+        <v>6539.47</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="17"/>
+        <v>4253.8999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="25">
+        <v>330.21800000000002</v>
+      </c>
+      <c r="D61" s="3">
+        <v>326.97350000000006</v>
+      </c>
+      <c r="E61" s="5">
+        <v>212.69499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="31"/>
+      <c r="B62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="25">
+        <v>3508.1745000000001</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3215.3115000000003</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2070.9510000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="31"/>
+      <c r="B63" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="26">
+        <f>C60-C61-C62</f>
+        <v>2765.9674999999997</v>
+      </c>
+      <c r="D63" s="16">
+        <f t="shared" ref="D63:E63" si="18">D60-D61-D62</f>
+        <v>2997.1849999999999</v>
+      </c>
+      <c r="E63" s="17">
+        <f t="shared" si="18"/>
+        <v>1970.253999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="55"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="28">
+        <f>SUM(C7,C14,C21,C28,C35,C42,C49,C56,C63)</f>
+        <v>14464.879499999999</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" ref="D65:E65" si="19">SUM(D7,D14,D21,D28,D35,D42,D49,D56,D63)</f>
+        <v>14553.945999999998</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="19"/>
+        <v>13711.399999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="31"/>
+      <c r="B66" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="29">
+        <v>22000</v>
+      </c>
+      <c r="D66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="E66" s="23">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="32"/>
+      <c r="B67" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="30">
+        <f>C65-C66</f>
+        <v>-7535.1205000000009</v>
+      </c>
+      <c r="D67" s="19">
+        <f t="shared" ref="D67:E67" si="20">D65-D66</f>
+        <v>-7446.0540000000019</v>
+      </c>
+      <c r="E67" s="20">
+        <f t="shared" si="20"/>
+        <v>-8288.6000000000022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB14E376-D69C-4FD5-9EF2-FE71DE02B588}">
+  <dimension ref="A1:S67"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="E2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="G2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="H2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="I2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="J2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="K2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="L2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="M2" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="N2" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="Q2" s="64">
+        <v>2018</v>
+      </c>
+      <c r="R2" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="39">
+        <v>13</v>
+      </c>
+      <c r="D3" s="39">
+        <v>2</v>
+      </c>
+      <c r="E3" s="39">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39">
+        <v>28</v>
+      </c>
+      <c r="G3" s="39">
+        <v>26</v>
+      </c>
+      <c r="H3" s="39">
+        <v>18</v>
+      </c>
+      <c r="I3" s="39">
+        <v>49</v>
+      </c>
+      <c r="J3" s="39">
+        <v>64</v>
+      </c>
+      <c r="K3" s="39">
+        <v>82</v>
+      </c>
+      <c r="L3" s="39">
+        <v>88</v>
+      </c>
+      <c r="M3" s="39">
+        <v>202</v>
+      </c>
+      <c r="N3" s="51">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="57">
+        <f>C2*C3</f>
+        <v>22.099999999999998</v>
+      </c>
+      <c r="D4" s="58">
+        <f t="shared" ref="D4:N4" si="0">D2*D3</f>
+        <v>3.4</v>
+      </c>
+      <c r="E4" s="58">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F4" s="58">
+        <f t="shared" si="0"/>
+        <v>47.6</v>
+      </c>
+      <c r="G4" s="58">
+        <f t="shared" si="0"/>
+        <v>44.199999999999996</v>
+      </c>
+      <c r="H4" s="58">
+        <f t="shared" si="0"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="I4" s="58">
+        <f t="shared" si="0"/>
+        <v>83.3</v>
+      </c>
+      <c r="J4" s="58">
+        <f t="shared" si="0"/>
+        <v>108.8</v>
+      </c>
+      <c r="K4" s="58">
+        <f t="shared" si="0"/>
+        <v>139.4</v>
+      </c>
+      <c r="L4" s="58">
+        <f t="shared" si="0"/>
+        <v>149.6</v>
+      </c>
+      <c r="M4" s="58">
+        <f t="shared" si="0"/>
+        <v>343.4</v>
+      </c>
+      <c r="N4" s="59">
+        <f t="shared" si="0"/>
+        <v>108.8</v>
+      </c>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2.21</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2.3800000000000003</v>
+      </c>
+      <c r="G5" s="35">
+        <v>2.21</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.53</v>
+      </c>
+      <c r="I5" s="35">
+        <v>4.165</v>
+      </c>
+      <c r="J5" s="35">
+        <v>5.44</v>
+      </c>
+      <c r="K5" s="35">
+        <v>6.9700000000000006</v>
+      </c>
+      <c r="L5" s="35">
+        <v>14.96</v>
+      </c>
+      <c r="M5" s="35">
+        <v>34.339999999999996</v>
+      </c>
+      <c r="N5" s="36">
+        <v>10.88</v>
+      </c>
+      <c r="Q5" s="68">
+        <v>2019</v>
+      </c>
+      <c r="R5" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="38"/>
+      <c r="B6" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="45">
+        <v>4.42</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1.02</v>
+      </c>
+      <c r="F6" s="46">
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="G6" s="46">
+        <v>8.84</v>
+      </c>
+      <c r="H6" s="46">
+        <v>6.12</v>
+      </c>
+      <c r="I6" s="46">
+        <v>16.66</v>
+      </c>
+      <c r="J6" s="46">
+        <v>21.76</v>
+      </c>
+      <c r="K6" s="46">
+        <v>27.880000000000003</v>
+      </c>
+      <c r="L6" s="46">
+        <v>29.92</v>
+      </c>
+      <c r="M6" s="46">
+        <v>68.679999999999993</v>
+      </c>
+      <c r="N6" s="47">
+        <v>21.76</v>
+      </c>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="38"/>
+      <c r="B7" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="61">
+        <f>C4-C5-C6</f>
+        <v>15.469999999999997</v>
+      </c>
+      <c r="D7" s="62">
+        <f t="shared" ref="D7:N7" si="1">D4-D5-D6</f>
+        <v>2.38</v>
+      </c>
+      <c r="E7" s="62">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="F7" s="62">
+        <f t="shared" si="1"/>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" si="1"/>
+        <v>33.149999999999991</v>
+      </c>
+      <c r="H7" s="62">
+        <f t="shared" si="1"/>
+        <v>22.949999999999996</v>
+      </c>
+      <c r="I7" s="62">
+        <f t="shared" si="1"/>
+        <v>62.474999999999994</v>
+      </c>
+      <c r="J7" s="62">
+        <f t="shared" si="1"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K7" s="62">
+        <f t="shared" si="1"/>
+        <v>104.55000000000001</v>
+      </c>
+      <c r="L7" s="62">
+        <f t="shared" si="1"/>
+        <v>104.71999999999998</v>
+      </c>
+      <c r="M7" s="62">
+        <f t="shared" si="1"/>
+        <v>240.38</v>
+      </c>
+      <c r="N7" s="63">
+        <f t="shared" si="1"/>
+        <v>76.16</v>
+      </c>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="E9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="F9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="G9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="H9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="I9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="J9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="L9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="M9" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="N9" s="50">
+        <v>2.72</v>
+      </c>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1222</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1073</v>
+      </c>
+      <c r="E10" s="39">
+        <v>1237</v>
+      </c>
+      <c r="F10" s="39">
+        <v>1021</v>
+      </c>
+      <c r="G10" s="39">
+        <v>865</v>
+      </c>
+      <c r="H10" s="39">
+        <v>867</v>
+      </c>
+      <c r="I10" s="39">
+        <v>841</v>
+      </c>
+      <c r="J10" s="39">
+        <v>1087</v>
+      </c>
+      <c r="K10" s="39">
+        <v>1204</v>
+      </c>
+      <c r="L10" s="39">
+        <v>1195</v>
+      </c>
+      <c r="M10" s="39">
+        <v>370</v>
+      </c>
+      <c r="N10" s="51">
+        <v>946</v>
+      </c>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="57">
+        <f>C9*C10</f>
+        <v>3323.84</v>
+      </c>
+      <c r="D11" s="58">
+        <f t="shared" ref="D11:N11" si="2">D9*D10</f>
+        <v>2918.5600000000004</v>
+      </c>
+      <c r="E11" s="58">
+        <f t="shared" si="2"/>
+        <v>3364.6400000000003</v>
+      </c>
+      <c r="F11" s="58">
+        <f t="shared" si="2"/>
+        <v>2777.1200000000003</v>
+      </c>
+      <c r="G11" s="58">
+        <f t="shared" si="2"/>
+        <v>2352.8000000000002</v>
+      </c>
+      <c r="H11" s="58">
+        <f t="shared" si="2"/>
+        <v>2358.2400000000002</v>
+      </c>
+      <c r="I11" s="58">
+        <f t="shared" si="2"/>
+        <v>2287.52</v>
+      </c>
+      <c r="J11" s="58">
+        <f t="shared" si="2"/>
+        <v>2956.6400000000003</v>
+      </c>
+      <c r="K11" s="58">
+        <f t="shared" si="2"/>
+        <v>3274.88</v>
+      </c>
+      <c r="L11" s="58">
+        <f t="shared" si="2"/>
+        <v>3250.4</v>
+      </c>
+      <c r="M11" s="58">
+        <f t="shared" si="2"/>
+        <v>1006.4000000000001</v>
+      </c>
+      <c r="N11" s="59">
+        <f t="shared" si="2"/>
+        <v>2573.1200000000003</v>
+      </c>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="34">
+        <v>332.38400000000001</v>
+      </c>
+      <c r="D12" s="35">
+        <v>291.85600000000005</v>
+      </c>
+      <c r="E12" s="35">
+        <v>336.46400000000006</v>
+      </c>
+      <c r="F12" s="35">
+        <v>138.85600000000002</v>
+      </c>
+      <c r="G12" s="35">
+        <v>117.64000000000001</v>
+      </c>
+      <c r="H12" s="35">
+        <v>117.91200000000002</v>
+      </c>
+      <c r="I12" s="35">
+        <v>114.376</v>
+      </c>
+      <c r="J12" s="35">
+        <v>147.83200000000002</v>
+      </c>
+      <c r="K12" s="35">
+        <v>163.74400000000003</v>
+      </c>
+      <c r="L12" s="35">
+        <v>325.04000000000002</v>
+      </c>
+      <c r="M12" s="35">
+        <v>100.64000000000001</v>
+      </c>
+      <c r="N12" s="36">
+        <v>257.31200000000007</v>
+      </c>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45">
+        <v>664.76800000000003</v>
+      </c>
+      <c r="D13" s="46">
+        <v>583.7120000000001</v>
+      </c>
+      <c r="E13" s="46">
+        <v>672.92800000000011</v>
+      </c>
+      <c r="F13" s="46">
+        <v>555.42400000000009</v>
+      </c>
+      <c r="G13" s="46">
+        <v>470.56000000000006</v>
+      </c>
+      <c r="H13" s="46">
+        <v>471.64800000000008</v>
+      </c>
+      <c r="I13" s="46">
+        <v>457.50400000000002</v>
+      </c>
+      <c r="J13" s="46">
+        <v>591.32800000000009</v>
+      </c>
+      <c r="K13" s="46">
+        <v>654.97600000000011</v>
+      </c>
+      <c r="L13" s="46">
+        <v>650.08000000000004</v>
+      </c>
+      <c r="M13" s="46">
+        <v>201.28000000000003</v>
+      </c>
+      <c r="N13" s="47">
+        <v>514.62400000000014</v>
+      </c>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="61">
+        <f>C11-C12-C13</f>
+        <v>2326.6880000000001</v>
+      </c>
+      <c r="D14" s="62">
+        <f t="shared" ref="D14:N14" si="3">D11-D12-D13</f>
+        <v>2042.9920000000002</v>
+      </c>
+      <c r="E14" s="62">
+        <f t="shared" si="3"/>
+        <v>2355.2480000000005</v>
+      </c>
+      <c r="F14" s="62">
+        <f t="shared" si="3"/>
+        <v>2082.84</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" si="3"/>
+        <v>1764.6000000000004</v>
+      </c>
+      <c r="H14" s="62">
+        <f t="shared" si="3"/>
+        <v>1768.6800000000003</v>
+      </c>
+      <c r="I14" s="62">
+        <f t="shared" si="3"/>
+        <v>1715.6399999999999</v>
+      </c>
+      <c r="J14" s="62">
+        <f t="shared" si="3"/>
+        <v>2217.4800000000005</v>
+      </c>
+      <c r="K14" s="62">
+        <f t="shared" si="3"/>
+        <v>2456.16</v>
+      </c>
+      <c r="L14" s="62">
+        <f t="shared" si="3"/>
+        <v>2275.2800000000002</v>
+      </c>
+      <c r="M14" s="62">
+        <f t="shared" si="3"/>
+        <v>704.48</v>
+      </c>
+      <c r="N14" s="63">
+        <f t="shared" si="3"/>
+        <v>1801.1840000000002</v>
+      </c>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="D16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="E16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="F16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="G16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="H16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="I16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="J16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="K16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="L16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="M16" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="N16" s="50">
+        <v>3.8</v>
+      </c>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="39">
+        <v>504</v>
+      </c>
+      <c r="D17" s="39">
+        <v>706</v>
+      </c>
+      <c r="E17" s="39">
+        <v>482</v>
+      </c>
+      <c r="F17" s="39">
+        <v>381</v>
+      </c>
+      <c r="G17" s="39">
+        <v>285</v>
+      </c>
+      <c r="H17" s="39">
+        <v>277</v>
+      </c>
+      <c r="I17" s="39">
+        <v>242</v>
+      </c>
+      <c r="J17" s="39">
+        <v>197</v>
+      </c>
+      <c r="K17" s="39">
+        <v>239</v>
+      </c>
+      <c r="L17" s="39">
+        <v>359</v>
+      </c>
+      <c r="M17" s="39">
+        <v>397</v>
+      </c>
+      <c r="N17" s="51">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="57">
+        <f>C16*C17</f>
+        <v>1915.1999999999998</v>
+      </c>
+      <c r="D18" s="58">
+        <f t="shared" ref="D18:N18" si="4">D16*D17</f>
+        <v>2682.7999999999997</v>
+      </c>
+      <c r="E18" s="58">
+        <f t="shared" si="4"/>
+        <v>1831.6</v>
+      </c>
+      <c r="F18" s="58">
+        <f t="shared" si="4"/>
+        <v>1447.8</v>
+      </c>
+      <c r="G18" s="58">
+        <f t="shared" si="4"/>
+        <v>1083</v>
+      </c>
+      <c r="H18" s="58">
+        <f t="shared" si="4"/>
+        <v>1052.5999999999999</v>
+      </c>
+      <c r="I18" s="58">
+        <f t="shared" si="4"/>
+        <v>919.59999999999991</v>
+      </c>
+      <c r="J18" s="58">
+        <f t="shared" si="4"/>
+        <v>748.59999999999991</v>
+      </c>
+      <c r="K18" s="58">
+        <f t="shared" si="4"/>
+        <v>908.19999999999993</v>
+      </c>
+      <c r="L18" s="58">
+        <f t="shared" si="4"/>
+        <v>1364.2</v>
+      </c>
+      <c r="M18" s="58">
+        <f t="shared" si="4"/>
+        <v>1508.6</v>
+      </c>
+      <c r="N18" s="59">
+        <f t="shared" si="4"/>
+        <v>1170.3999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="34">
+        <v>191.51999999999998</v>
+      </c>
+      <c r="D19" s="35">
+        <v>268.27999999999997</v>
+      </c>
+      <c r="E19" s="35">
+        <v>183.16</v>
+      </c>
+      <c r="F19" s="35">
+        <v>72.39</v>
+      </c>
+      <c r="G19" s="35">
+        <v>54.150000000000006</v>
+      </c>
+      <c r="H19" s="35">
+        <v>52.629999999999995</v>
+      </c>
+      <c r="I19" s="35">
+        <v>45.98</v>
+      </c>
+      <c r="J19" s="35">
+        <v>37.43</v>
+      </c>
+      <c r="K19" s="35">
+        <v>45.41</v>
+      </c>
+      <c r="L19" s="35">
+        <v>136.42000000000002</v>
+      </c>
+      <c r="M19" s="35">
+        <v>150.85999999999999</v>
+      </c>
+      <c r="N19" s="36">
+        <v>117.03999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="45">
+        <v>383.03999999999996</v>
+      </c>
+      <c r="D20" s="46">
+        <v>536.55999999999995</v>
+      </c>
+      <c r="E20" s="46">
+        <v>366.32</v>
+      </c>
+      <c r="F20" s="46">
+        <v>289.56</v>
+      </c>
+      <c r="G20" s="46">
+        <v>216.60000000000002</v>
+      </c>
+      <c r="H20" s="46">
+        <v>210.51999999999998</v>
+      </c>
+      <c r="I20" s="46">
+        <v>183.92</v>
+      </c>
+      <c r="J20" s="46">
+        <v>149.72</v>
+      </c>
+      <c r="K20" s="46">
+        <v>181.64</v>
+      </c>
+      <c r="L20" s="46">
+        <v>272.84000000000003</v>
+      </c>
+      <c r="M20" s="46">
+        <v>301.71999999999997</v>
+      </c>
+      <c r="N20" s="47">
+        <v>234.07999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="61">
+        <f>C18-C19-C20</f>
+        <v>1340.6399999999999</v>
+      </c>
+      <c r="D21" s="62">
+        <f t="shared" ref="D21:N21" si="5">D18-D19-D20</f>
+        <v>1877.9599999999996</v>
+      </c>
+      <c r="E21" s="62">
+        <f t="shared" si="5"/>
+        <v>1282.1199999999999</v>
+      </c>
+      <c r="F21" s="62">
+        <f t="shared" si="5"/>
+        <v>1085.8499999999999</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" si="5"/>
+        <v>812.24999999999989</v>
+      </c>
+      <c r="H21" s="62">
+        <f t="shared" si="5"/>
+        <v>789.44999999999993</v>
+      </c>
+      <c r="I21" s="62">
+        <f t="shared" si="5"/>
+        <v>689.69999999999993</v>
+      </c>
+      <c r="J21" s="62">
+        <f t="shared" si="5"/>
+        <v>561.44999999999993</v>
+      </c>
+      <c r="K21" s="62">
+        <f t="shared" si="5"/>
+        <v>681.15</v>
+      </c>
+      <c r="L21" s="62">
+        <f t="shared" si="5"/>
+        <v>954.93999999999994</v>
+      </c>
+      <c r="M21" s="62">
+        <f t="shared" si="5"/>
+        <v>1056.02</v>
+      </c>
+      <c r="N21" s="63">
+        <f t="shared" si="5"/>
+        <v>819.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="G23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="H23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="I23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="J23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="K23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="L23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="M23" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="N23" s="50">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="39">
+        <v>364</v>
+      </c>
+      <c r="D24" s="39">
+        <v>167</v>
+      </c>
+      <c r="E24" s="39">
+        <v>336</v>
+      </c>
+      <c r="F24" s="39">
+        <v>297</v>
+      </c>
+      <c r="G24" s="39">
+        <v>311</v>
+      </c>
+      <c r="H24" s="39">
+        <v>284</v>
+      </c>
+      <c r="I24" s="39">
+        <v>195</v>
+      </c>
+      <c r="J24" s="39">
+        <v>132</v>
+      </c>
+      <c r="K24" s="39">
+        <v>165</v>
+      </c>
+      <c r="L24" s="39">
+        <v>200</v>
+      </c>
+      <c r="M24" s="39">
+        <v>1029</v>
+      </c>
+      <c r="N24" s="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="57">
+        <f>C23*C24</f>
+        <v>691.6</v>
+      </c>
+      <c r="D25" s="58">
+        <f t="shared" ref="D25:N25" si="6">D23*D24</f>
+        <v>317.3</v>
+      </c>
+      <c r="E25" s="58">
+        <f t="shared" si="6"/>
+        <v>638.4</v>
+      </c>
+      <c r="F25" s="58">
+        <f t="shared" si="6"/>
+        <v>564.29999999999995</v>
+      </c>
+      <c r="G25" s="58">
+        <f t="shared" si="6"/>
+        <v>590.9</v>
+      </c>
+      <c r="H25" s="58">
+        <f t="shared" si="6"/>
+        <v>539.6</v>
+      </c>
+      <c r="I25" s="58">
+        <f t="shared" si="6"/>
+        <v>370.5</v>
+      </c>
+      <c r="J25" s="58">
+        <f t="shared" si="6"/>
+        <v>250.79999999999998</v>
+      </c>
+      <c r="K25" s="58">
+        <f t="shared" si="6"/>
+        <v>313.5</v>
+      </c>
+      <c r="L25" s="58">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="M25" s="58">
+        <f t="shared" si="6"/>
+        <v>1955.1</v>
+      </c>
+      <c r="N25" s="59">
+        <f t="shared" si="6"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34">
+        <v>69.160000000000011</v>
+      </c>
+      <c r="D26" s="35">
+        <v>31.730000000000004</v>
+      </c>
+      <c r="E26" s="35">
+        <v>63.84</v>
+      </c>
+      <c r="F26" s="35">
+        <v>28.215</v>
+      </c>
+      <c r="G26" s="35">
+        <v>29.545000000000002</v>
+      </c>
+      <c r="H26" s="35">
+        <v>26.980000000000004</v>
+      </c>
+      <c r="I26" s="35">
+        <v>18.525000000000002</v>
+      </c>
+      <c r="J26" s="35">
+        <v>12.54</v>
+      </c>
+      <c r="K26" s="35">
+        <v>15.675000000000001</v>
+      </c>
+      <c r="L26" s="35">
+        <v>38</v>
+      </c>
+      <c r="M26" s="35">
+        <v>195.51</v>
+      </c>
+      <c r="N26" s="36">
+        <v>42.370000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="45">
+        <v>138.32000000000002</v>
+      </c>
+      <c r="D27" s="46">
+        <v>63.460000000000008</v>
+      </c>
+      <c r="E27" s="46">
+        <v>127.68</v>
+      </c>
+      <c r="F27" s="46">
+        <v>112.86</v>
+      </c>
+      <c r="G27" s="46">
+        <v>118.18</v>
+      </c>
+      <c r="H27" s="46">
+        <v>107.92000000000002</v>
+      </c>
+      <c r="I27" s="46">
+        <v>74.100000000000009</v>
+      </c>
+      <c r="J27" s="46">
+        <v>50.16</v>
+      </c>
+      <c r="K27" s="46">
+        <v>62.7</v>
+      </c>
+      <c r="L27" s="46">
+        <v>76</v>
+      </c>
+      <c r="M27" s="46">
+        <v>391.02</v>
+      </c>
+      <c r="N27" s="47">
+        <v>84.740000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="61">
+        <f>C25-C26-C27</f>
+        <v>484.12</v>
+      </c>
+      <c r="D28" s="62">
+        <f t="shared" ref="D28:N28" si="7">D25-D26-D27</f>
+        <v>222.10999999999999</v>
+      </c>
+      <c r="E28" s="62">
+        <f t="shared" si="7"/>
+        <v>446.87999999999994</v>
+      </c>
+      <c r="F28" s="62">
+        <f t="shared" si="7"/>
+        <v>423.22499999999991</v>
+      </c>
+      <c r="G28" s="62">
+        <f t="shared" si="7"/>
+        <v>443.17500000000001</v>
+      </c>
+      <c r="H28" s="62">
+        <f t="shared" si="7"/>
+        <v>404.7</v>
+      </c>
+      <c r="I28" s="62">
+        <f t="shared" si="7"/>
+        <v>277.875</v>
+      </c>
+      <c r="J28" s="62">
+        <f t="shared" si="7"/>
+        <v>188.1</v>
+      </c>
+      <c r="K28" s="62">
+        <f t="shared" si="7"/>
+        <v>235.125</v>
+      </c>
+      <c r="L28" s="62">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="M28" s="62">
+        <f t="shared" si="7"/>
+        <v>1368.57</v>
+      </c>
+      <c r="N28" s="63">
+        <f t="shared" si="7"/>
+        <v>296.58999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="D30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="E30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="F30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="G30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="H30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="I30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="J30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="K30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="L30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="M30" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="N30" s="50">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="39">
+        <v>940</v>
+      </c>
+      <c r="D31" s="39">
+        <v>132</v>
+      </c>
+      <c r="E31" s="39">
+        <v>1274</v>
+      </c>
+      <c r="F31" s="39">
+        <v>988</v>
+      </c>
+      <c r="G31" s="39">
+        <v>899</v>
+      </c>
+      <c r="H31" s="39">
+        <v>736</v>
+      </c>
+      <c r="I31" s="39">
+        <v>297</v>
+      </c>
+      <c r="J31" s="39">
+        <v>343</v>
+      </c>
+      <c r="K31" s="39">
+        <v>308</v>
+      </c>
+      <c r="L31" s="39">
+        <v>301</v>
+      </c>
+      <c r="M31" s="39">
+        <v>368</v>
+      </c>
+      <c r="N31" s="51">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="57">
+        <f>C30*C31</f>
+        <v>5602.4</v>
+      </c>
+      <c r="D32" s="58">
+        <f t="shared" ref="D32:N32" si="8">D30*D31</f>
+        <v>786.72</v>
+      </c>
+      <c r="E32" s="58">
+        <f t="shared" si="8"/>
+        <v>7593.04</v>
+      </c>
+      <c r="F32" s="58">
+        <f t="shared" si="8"/>
+        <v>5888.48</v>
+      </c>
+      <c r="G32" s="58">
+        <f t="shared" si="8"/>
+        <v>5358.04</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" si="8"/>
+        <v>4386.5600000000004</v>
+      </c>
+      <c r="I32" s="58">
+        <f t="shared" si="8"/>
+        <v>1770.12</v>
+      </c>
+      <c r="J32" s="58">
+        <f t="shared" si="8"/>
+        <v>2044.28</v>
+      </c>
+      <c r="K32" s="58">
+        <f t="shared" si="8"/>
+        <v>1835.68</v>
+      </c>
+      <c r="L32" s="58">
+        <f t="shared" si="8"/>
+        <v>1793.96</v>
+      </c>
+      <c r="M32" s="58">
+        <f t="shared" si="8"/>
+        <v>2193.2800000000002</v>
+      </c>
+      <c r="N32" s="59">
+        <f t="shared" si="8"/>
+        <v>1710.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="34">
+        <v>560.24</v>
+      </c>
+      <c r="D33" s="35">
+        <v>78.672000000000011</v>
+      </c>
+      <c r="E33" s="35">
+        <v>759.30400000000009</v>
+      </c>
+      <c r="F33" s="35">
+        <v>294.42399999999998</v>
+      </c>
+      <c r="G33" s="35">
+        <v>267.90199999999999</v>
+      </c>
+      <c r="H33" s="35">
+        <v>219.32800000000003</v>
+      </c>
+      <c r="I33" s="35">
+        <v>88.506</v>
+      </c>
+      <c r="J33" s="35">
+        <v>102.214</v>
+      </c>
+      <c r="K33" s="35">
+        <v>91.784000000000006</v>
+      </c>
+      <c r="L33" s="35">
+        <v>179.39600000000002</v>
+      </c>
+      <c r="M33" s="35">
+        <v>219.32800000000003</v>
+      </c>
+      <c r="N33" s="36">
+        <v>171.05200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="45">
+        <v>1077.3335</v>
+      </c>
+      <c r="D34" s="46">
+        <v>133.08400000000003</v>
+      </c>
+      <c r="E34" s="46">
+        <v>1324.38</v>
+      </c>
+      <c r="F34" s="46">
+        <v>1110.1815000000001</v>
+      </c>
+      <c r="G34" s="46">
+        <v>984.65649999999994</v>
+      </c>
+      <c r="H34" s="46">
+        <v>773.85350000000005</v>
+      </c>
+      <c r="I34" s="46">
+        <v>629.03400000000011</v>
+      </c>
+      <c r="J34" s="46">
+        <v>727.12500000000011</v>
+      </c>
+      <c r="K34" s="46">
+        <v>664.11050000000012</v>
+      </c>
+      <c r="L34" s="46">
+        <v>643.99750000000006</v>
+      </c>
+      <c r="M34" s="46">
+        <v>546.75400000000002</v>
+      </c>
+      <c r="N34" s="47">
+        <v>611.50350000000014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="61">
+        <f>C32-C33-C34</f>
+        <v>3964.8265000000001</v>
+      </c>
+      <c r="D35" s="62">
+        <f t="shared" ref="D35:N35" si="9">D32-D33-D34</f>
+        <v>574.96399999999994</v>
+      </c>
+      <c r="E35" s="62">
+        <f t="shared" si="9"/>
+        <v>5509.3559999999998</v>
+      </c>
+      <c r="F35" s="62">
+        <f t="shared" si="9"/>
+        <v>4483.8744999999999</v>
+      </c>
+      <c r="G35" s="62">
+        <f t="shared" si="9"/>
+        <v>4105.4814999999999</v>
+      </c>
+      <c r="H35" s="62">
+        <f t="shared" si="9"/>
+        <v>3393.3784999999998</v>
+      </c>
+      <c r="I35" s="62">
+        <f t="shared" si="9"/>
+        <v>1052.5799999999997</v>
+      </c>
+      <c r="J35" s="62">
+        <f t="shared" si="9"/>
+        <v>1214.9409999999998</v>
+      </c>
+      <c r="K35" s="62">
+        <f t="shared" si="9"/>
+        <v>1079.7855</v>
+      </c>
+      <c r="L35" s="62">
+        <f t="shared" si="9"/>
+        <v>970.56650000000002</v>
+      </c>
+      <c r="M35" s="62">
+        <f t="shared" si="9"/>
+        <v>1427.1980000000003</v>
+      </c>
+      <c r="N35" s="63">
+        <f t="shared" si="9"/>
+        <v>927.9644999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="D37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="E37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="F37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="G37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="H37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="I37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="J37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="K37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="L37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="M37" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="N37" s="50">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="39">
+        <v>386</v>
+      </c>
+      <c r="D38" s="39">
+        <v>263</v>
+      </c>
+      <c r="E38" s="39">
+        <v>235</v>
+      </c>
+      <c r="F38" s="39">
+        <v>147</v>
+      </c>
+      <c r="G38" s="39">
+        <v>95</v>
+      </c>
+      <c r="H38" s="39">
+        <v>109</v>
+      </c>
+      <c r="I38" s="39">
+        <v>64</v>
+      </c>
+      <c r="J38" s="39">
+        <v>77</v>
+      </c>
+      <c r="K38" s="39">
+        <v>59</v>
+      </c>
+      <c r="L38" s="39">
+        <v>93</v>
+      </c>
+      <c r="M38" s="39">
+        <v>238</v>
+      </c>
+      <c r="N38" s="51">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="57">
+        <f>C37*C38</f>
+        <v>2080.54</v>
+      </c>
+      <c r="D39" s="58">
+        <f t="shared" ref="D39:N39" si="10">D37*D38</f>
+        <v>1417.57</v>
+      </c>
+      <c r="E39" s="58">
+        <f t="shared" si="10"/>
+        <v>1266.6499999999999</v>
+      </c>
+      <c r="F39" s="58">
+        <f t="shared" si="10"/>
+        <v>792.32999999999993</v>
+      </c>
+      <c r="G39" s="58">
+        <f t="shared" si="10"/>
+        <v>512.04999999999995</v>
+      </c>
+      <c r="H39" s="58">
+        <f t="shared" si="10"/>
+        <v>587.51</v>
+      </c>
+      <c r="I39" s="58">
+        <f t="shared" si="10"/>
+        <v>344.96</v>
+      </c>
+      <c r="J39" s="58">
+        <f t="shared" si="10"/>
+        <v>415.03</v>
+      </c>
+      <c r="K39" s="58">
+        <f t="shared" si="10"/>
+        <v>318.01</v>
+      </c>
+      <c r="L39" s="58">
+        <f t="shared" si="10"/>
+        <v>501.27</v>
+      </c>
+      <c r="M39" s="58">
+        <f t="shared" si="10"/>
+        <v>1282.82</v>
+      </c>
+      <c r="N39" s="59">
+        <f t="shared" si="10"/>
+        <v>393.46999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="34">
+        <v>208.054</v>
+      </c>
+      <c r="D40" s="35">
+        <v>141.75700000000001</v>
+      </c>
+      <c r="E40" s="35">
+        <v>126.66499999999999</v>
+      </c>
+      <c r="F40" s="35">
+        <v>39.616500000000002</v>
+      </c>
+      <c r="G40" s="35">
+        <v>25.602499999999999</v>
+      </c>
+      <c r="H40" s="35">
+        <v>29.375500000000002</v>
+      </c>
+      <c r="I40" s="35">
+        <v>17.248000000000001</v>
+      </c>
+      <c r="J40" s="35">
+        <v>20.7515</v>
+      </c>
+      <c r="K40" s="35">
+        <v>15.900500000000001</v>
+      </c>
+      <c r="L40" s="35">
+        <v>50.127000000000002</v>
+      </c>
+      <c r="M40" s="35">
+        <v>128.28200000000001</v>
+      </c>
+      <c r="N40" s="36">
+        <v>39.347000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="45">
+        <v>416.108</v>
+      </c>
+      <c r="D41" s="46">
+        <v>283.51400000000001</v>
+      </c>
+      <c r="E41" s="46">
+        <v>253.32999999999998</v>
+      </c>
+      <c r="F41" s="46">
+        <v>158.46600000000001</v>
+      </c>
+      <c r="G41" s="46">
+        <v>102.41</v>
+      </c>
+      <c r="H41" s="46">
+        <v>117.50200000000001</v>
+      </c>
+      <c r="I41" s="46">
+        <v>68.992000000000004</v>
+      </c>
+      <c r="J41" s="46">
+        <v>83.006</v>
+      </c>
+      <c r="K41" s="46">
+        <v>63.602000000000004</v>
+      </c>
+      <c r="L41" s="46">
+        <v>100.254</v>
+      </c>
+      <c r="M41" s="46">
+        <v>256.56400000000002</v>
+      </c>
+      <c r="N41" s="47">
+        <v>78.694000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="61">
+        <f>C39-C40-C41</f>
+        <v>1456.3779999999999</v>
+      </c>
+      <c r="D42" s="62">
+        <f t="shared" ref="D42:N42" si="11">D39-D40-D41</f>
+        <v>992.29899999999986</v>
+      </c>
+      <c r="E42" s="62">
+        <f t="shared" si="11"/>
+        <v>886.65499999999997</v>
+      </c>
+      <c r="F42" s="62">
+        <f t="shared" si="11"/>
+        <v>594.24749999999995</v>
+      </c>
+      <c r="G42" s="62">
+        <f t="shared" si="11"/>
+        <v>384.03749999999991</v>
+      </c>
+      <c r="H42" s="62">
+        <f t="shared" si="11"/>
+        <v>440.63249999999999</v>
+      </c>
+      <c r="I42" s="62">
+        <f t="shared" si="11"/>
+        <v>258.71999999999997</v>
+      </c>
+      <c r="J42" s="62">
+        <f t="shared" si="11"/>
+        <v>311.27249999999992</v>
+      </c>
+      <c r="K42" s="62">
+        <f t="shared" si="11"/>
+        <v>238.50749999999996</v>
+      </c>
+      <c r="L42" s="62">
+        <f t="shared" si="11"/>
+        <v>350.88899999999995</v>
+      </c>
+      <c r="M42" s="62">
+        <f t="shared" si="11"/>
+        <v>897.97399999999993</v>
+      </c>
+      <c r="N42" s="63">
+        <f t="shared" si="11"/>
+        <v>275.42899999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="D44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="E44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="F44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="G44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="H44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="I44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="J44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="K44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="L44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="M44" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="N44" s="50">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="39">
+        <v>786</v>
+      </c>
+      <c r="D45" s="39">
+        <v>1080</v>
+      </c>
+      <c r="E45" s="39">
+        <v>924</v>
+      </c>
+      <c r="F45" s="39">
+        <v>719</v>
+      </c>
+      <c r="G45" s="39">
+        <v>659</v>
+      </c>
+      <c r="H45" s="39">
+        <v>703</v>
+      </c>
+      <c r="I45" s="39">
+        <v>686</v>
+      </c>
+      <c r="J45" s="39">
+        <v>632</v>
+      </c>
+      <c r="K45" s="39">
+        <v>777</v>
+      </c>
+      <c r="L45" s="39">
+        <v>712</v>
+      </c>
+      <c r="M45" s="39">
+        <v>1132</v>
+      </c>
+      <c r="N45" s="51">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="57">
+        <f>C44*C45</f>
+        <v>4338.7199999999993</v>
+      </c>
+      <c r="D46" s="58">
+        <f t="shared" ref="D46:N46" si="12">D44*D45</f>
+        <v>5961.5999999999995</v>
+      </c>
+      <c r="E46" s="58">
+        <f t="shared" si="12"/>
+        <v>5100.4799999999996</v>
+      </c>
+      <c r="F46" s="58">
+        <f t="shared" si="12"/>
+        <v>3968.8799999999997</v>
+      </c>
+      <c r="G46" s="58">
+        <f t="shared" si="12"/>
+        <v>3637.68</v>
+      </c>
+      <c r="H46" s="58">
+        <f t="shared" si="12"/>
+        <v>3880.5599999999995</v>
+      </c>
+      <c r="I46" s="58">
+        <f t="shared" si="12"/>
+        <v>3786.72</v>
+      </c>
+      <c r="J46" s="58">
+        <f t="shared" si="12"/>
+        <v>3488.64</v>
+      </c>
+      <c r="K46" s="58">
+        <f t="shared" si="12"/>
+        <v>4289.04</v>
+      </c>
+      <c r="L46" s="58">
+        <f t="shared" si="12"/>
+        <v>3930.24</v>
+      </c>
+      <c r="M46" s="58">
+        <f t="shared" si="12"/>
+        <v>6248.6399999999994</v>
+      </c>
+      <c r="N46" s="59">
+        <f t="shared" si="12"/>
+        <v>3759.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="34">
+        <v>253.72</v>
+      </c>
+      <c r="D47" s="35">
+        <v>110.1</v>
+      </c>
+      <c r="E47" s="35">
+        <v>314.19</v>
+      </c>
+      <c r="F47" s="35">
+        <v>198.44399999999999</v>
+      </c>
+      <c r="G47" s="35">
+        <v>181.88400000000001</v>
+      </c>
+      <c r="H47" s="35">
+        <v>194.02799999999999</v>
+      </c>
+      <c r="I47" s="35">
+        <v>189.33600000000001</v>
+      </c>
+      <c r="J47" s="35">
+        <v>174.43200000000002</v>
+      </c>
+      <c r="K47" s="35">
+        <v>214.452</v>
+      </c>
+      <c r="L47" s="35">
+        <v>393.024</v>
+      </c>
+      <c r="M47" s="35">
+        <v>624.86400000000003</v>
+      </c>
+      <c r="N47" s="36">
+        <v>375.91200000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="45">
+        <v>867.74399999999991</v>
+      </c>
+      <c r="D48" s="46">
+        <v>1192.32</v>
+      </c>
+      <c r="E48" s="46">
+        <v>1020.096</v>
+      </c>
+      <c r="F48" s="46">
+        <v>793.77599999999995</v>
+      </c>
+      <c r="G48" s="46">
+        <v>727.53600000000006</v>
+      </c>
+      <c r="H48" s="46">
+        <v>776.11199999999997</v>
+      </c>
+      <c r="I48" s="46">
+        <v>757.34400000000005</v>
+      </c>
+      <c r="J48" s="46">
+        <v>697.72800000000007</v>
+      </c>
+      <c r="K48" s="46">
+        <v>857.80799999999999</v>
+      </c>
+      <c r="L48" s="46">
+        <v>786.048</v>
+      </c>
+      <c r="M48" s="46">
+        <v>1249.7280000000001</v>
+      </c>
+      <c r="N48" s="47">
+        <v>751.82400000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="31"/>
+      <c r="B49" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="61">
+        <f>C46-C47-C48</f>
+        <v>3217.2559999999994</v>
+      </c>
+      <c r="D49" s="62">
+        <f t="shared" ref="D49:N49" si="13">D46-D47-D48</f>
+        <v>4659.1799999999994</v>
+      </c>
+      <c r="E49" s="62">
+        <f t="shared" si="13"/>
+        <v>3766.194</v>
+      </c>
+      <c r="F49" s="62">
+        <f t="shared" si="13"/>
+        <v>2976.66</v>
+      </c>
+      <c r="G49" s="62">
+        <f t="shared" si="13"/>
+        <v>2728.2599999999998</v>
+      </c>
+      <c r="H49" s="62">
+        <f t="shared" si="13"/>
+        <v>2910.4199999999996</v>
+      </c>
+      <c r="I49" s="62">
+        <f t="shared" si="13"/>
+        <v>2840.04</v>
+      </c>
+      <c r="J49" s="62">
+        <f t="shared" si="13"/>
+        <v>2616.4799999999996</v>
+      </c>
+      <c r="K49" s="62">
+        <f t="shared" si="13"/>
+        <v>3216.7799999999997</v>
+      </c>
+      <c r="L49" s="62">
+        <f t="shared" si="13"/>
+        <v>2751.1679999999997</v>
+      </c>
+      <c r="M49" s="62">
+        <f t="shared" si="13"/>
+        <v>4374.0479999999998</v>
+      </c>
+      <c r="N49" s="63">
+        <f t="shared" si="13"/>
+        <v>2631.3839999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="D51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="E51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="F51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="G51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="H51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="I51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="J51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="K51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="L51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="M51" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="N51" s="50">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="31"/>
+      <c r="B52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="39">
+        <v>204</v>
+      </c>
+      <c r="D52" s="39">
+        <v>407</v>
+      </c>
+      <c r="E52" s="39">
+        <v>199</v>
+      </c>
+      <c r="F52" s="39">
+        <v>162</v>
+      </c>
+      <c r="G52" s="39">
+        <v>132</v>
+      </c>
+      <c r="H52" s="39">
+        <v>143</v>
+      </c>
+      <c r="I52" s="39">
+        <v>192</v>
+      </c>
+      <c r="J52" s="39">
+        <v>157</v>
+      </c>
+      <c r="K52" s="39">
+        <v>279</v>
+      </c>
+      <c r="L52" s="39">
+        <v>354</v>
+      </c>
+      <c r="M52" s="39">
+        <v>116</v>
+      </c>
+      <c r="N52" s="51">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="31"/>
+      <c r="B53" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="57">
+        <f>C51*C52</f>
+        <v>1150.56</v>
+      </c>
+      <c r="D53" s="58">
+        <f t="shared" ref="D53:N53" si="14">D51*D52</f>
+        <v>2295.48</v>
+      </c>
+      <c r="E53" s="58">
+        <f t="shared" si="14"/>
+        <v>1122.3599999999999</v>
+      </c>
+      <c r="F53" s="58">
+        <f t="shared" si="14"/>
+        <v>913.68</v>
+      </c>
+      <c r="G53" s="58">
+        <f t="shared" si="14"/>
+        <v>744.4799999999999</v>
+      </c>
+      <c r="H53" s="58">
+        <f t="shared" si="14"/>
+        <v>806.52</v>
+      </c>
+      <c r="I53" s="58">
+        <f t="shared" si="14"/>
+        <v>1082.8799999999999</v>
+      </c>
+      <c r="J53" s="58">
+        <f t="shared" si="14"/>
+        <v>885.4799999999999</v>
+      </c>
+      <c r="K53" s="58">
+        <f t="shared" si="14"/>
+        <v>1573.56</v>
+      </c>
+      <c r="L53" s="58">
+        <f t="shared" si="14"/>
+        <v>1996.56</v>
+      </c>
+      <c r="M53" s="58">
+        <f t="shared" si="14"/>
+        <v>654.24</v>
+      </c>
+      <c r="N53" s="59">
+        <f t="shared" si="14"/>
+        <v>2177.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="31"/>
+      <c r="B54" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="34">
+        <v>115.056</v>
+      </c>
+      <c r="D54" s="35">
+        <v>229.548</v>
+      </c>
+      <c r="E54" s="35">
+        <v>112.23599999999999</v>
+      </c>
+      <c r="F54" s="35">
+        <v>45.683999999999997</v>
+      </c>
+      <c r="G54" s="35">
+        <v>37.223999999999997</v>
+      </c>
+      <c r="H54" s="35">
+        <v>40.326000000000001</v>
+      </c>
+      <c r="I54" s="35">
+        <v>54.143999999999998</v>
+      </c>
+      <c r="J54" s="35">
+        <v>44.274000000000001</v>
+      </c>
+      <c r="K54" s="35">
+        <v>78.677999999999997</v>
+      </c>
+      <c r="L54" s="35">
+        <v>199.65600000000001</v>
+      </c>
+      <c r="M54" s="35">
+        <v>65.424000000000007</v>
+      </c>
+      <c r="N54" s="36">
+        <v>217.70400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="31"/>
+      <c r="B55" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="45">
+        <v>230.11199999999999</v>
+      </c>
+      <c r="D55" s="46">
+        <v>459.096</v>
+      </c>
+      <c r="E55" s="46">
+        <v>224.47199999999998</v>
+      </c>
+      <c r="F55" s="46">
+        <v>182.73599999999999</v>
+      </c>
+      <c r="G55" s="46">
+        <v>148.89599999999999</v>
+      </c>
+      <c r="H55" s="46">
+        <v>161.304</v>
+      </c>
+      <c r="I55" s="46">
+        <v>216.57599999999999</v>
+      </c>
+      <c r="J55" s="46">
+        <v>177.096</v>
+      </c>
+      <c r="K55" s="46">
+        <v>314.71199999999999</v>
+      </c>
+      <c r="L55" s="46">
+        <v>399.31200000000001</v>
+      </c>
+      <c r="M55" s="46">
+        <v>130.84800000000001</v>
+      </c>
+      <c r="N55" s="47">
+        <v>435.40800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="31"/>
+      <c r="B56" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="61">
+        <f>C53-C54-C55</f>
+        <v>805.39199999999994</v>
+      </c>
+      <c r="D56" s="62">
+        <f t="shared" ref="D56:N56" si="15">D53-D54-D55</f>
+        <v>1606.8359999999998</v>
+      </c>
+      <c r="E56" s="62">
+        <f t="shared" si="15"/>
+        <v>785.65199999999993</v>
+      </c>
+      <c r="F56" s="62">
+        <f t="shared" si="15"/>
+        <v>685.26</v>
+      </c>
+      <c r="G56" s="62">
+        <f t="shared" si="15"/>
+        <v>558.3599999999999</v>
+      </c>
+      <c r="H56" s="62">
+        <f t="shared" si="15"/>
+        <v>604.89</v>
+      </c>
+      <c r="I56" s="62">
+        <f t="shared" si="15"/>
+        <v>812.15999999999985</v>
+      </c>
+      <c r="J56" s="62">
+        <f t="shared" si="15"/>
+        <v>664.1099999999999</v>
+      </c>
+      <c r="K56" s="62">
+        <f t="shared" si="15"/>
+        <v>1180.17</v>
+      </c>
+      <c r="L56" s="62">
+        <f t="shared" si="15"/>
+        <v>1397.5920000000001</v>
+      </c>
+      <c r="M56" s="62">
+        <f t="shared" si="15"/>
+        <v>457.96800000000002</v>
+      </c>
+      <c r="N56" s="63">
+        <f t="shared" si="15"/>
+        <v>1523.9279999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="D58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="E58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="F58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="G58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="H58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="I58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="J58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="K58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="L58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="M58" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="N58" s="50">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="39">
+        <v>906</v>
+      </c>
+      <c r="D59" s="39">
+        <v>684</v>
+      </c>
+      <c r="E59" s="39">
+        <v>886</v>
+      </c>
+      <c r="F59" s="39">
+        <v>740</v>
+      </c>
+      <c r="G59" s="39">
+        <v>591</v>
+      </c>
+      <c r="H59" s="39">
+        <v>641</v>
+      </c>
+      <c r="I59" s="39">
+        <v>971</v>
+      </c>
+      <c r="J59" s="39">
+        <v>1113</v>
+      </c>
+      <c r="K59" s="39">
+        <v>1274</v>
+      </c>
+      <c r="L59" s="39">
+        <v>1409</v>
+      </c>
+      <c r="M59" s="39">
+        <v>461</v>
+      </c>
+      <c r="N59" s="51">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="31"/>
+      <c r="B60" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="57">
+        <f>C58*C59</f>
+        <v>6532.26</v>
+      </c>
+      <c r="D60" s="58">
+        <f t="shared" ref="D60:N60" si="16">D58*D59</f>
+        <v>4931.6400000000003</v>
+      </c>
+      <c r="E60" s="58">
+        <f t="shared" si="16"/>
+        <v>6388.06</v>
+      </c>
+      <c r="F60" s="58">
+        <f t="shared" si="16"/>
+        <v>5335.4</v>
+      </c>
+      <c r="G60" s="58">
+        <f t="shared" si="16"/>
+        <v>4261.1099999999997</v>
+      </c>
+      <c r="H60" s="58">
+        <f t="shared" si="16"/>
+        <v>4621.6099999999997</v>
+      </c>
+      <c r="I60" s="58">
+        <f t="shared" si="16"/>
+        <v>7000.91</v>
+      </c>
+      <c r="J60" s="58">
+        <f t="shared" si="16"/>
+        <v>8024.73</v>
+      </c>
+      <c r="K60" s="58">
+        <f t="shared" si="16"/>
+        <v>9185.5399999999991</v>
+      </c>
+      <c r="L60" s="58">
+        <f t="shared" si="16"/>
+        <v>10158.89</v>
+      </c>
+      <c r="M60" s="58">
+        <f t="shared" si="16"/>
+        <v>3323.81</v>
+      </c>
+      <c r="N60" s="59">
+        <f t="shared" si="16"/>
+        <v>8176.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="34">
+        <v>653.22600000000011</v>
+      </c>
+      <c r="D61" s="35">
+        <v>493.16400000000004</v>
+      </c>
+      <c r="E61" s="35">
+        <v>638.80600000000004</v>
+      </c>
+      <c r="F61" s="35">
+        <v>266.77</v>
+      </c>
+      <c r="G61" s="35">
+        <v>213.05549999999999</v>
+      </c>
+      <c r="H61" s="35">
+        <v>231.0805</v>
+      </c>
+      <c r="I61" s="35">
+        <v>350.0455</v>
+      </c>
+      <c r="J61" s="35">
+        <v>401.23649999999998</v>
+      </c>
+      <c r="K61" s="35">
+        <v>459.27699999999999</v>
+      </c>
+      <c r="L61" s="35">
+        <v>1015.889</v>
+      </c>
+      <c r="M61" s="35">
+        <v>332.38100000000003</v>
+      </c>
+      <c r="N61" s="36">
+        <v>817.61400000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="31"/>
+      <c r="B62" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="45">
+        <v>3435.5370000000003</v>
+      </c>
+      <c r="D62" s="46">
+        <v>1080.3910000000003</v>
+      </c>
+      <c r="E62" s="46">
+        <v>3878.6465000000003</v>
+      </c>
+      <c r="F62" s="46">
+        <v>3053.0790000000006</v>
+      </c>
+      <c r="G62" s="46">
+        <v>2695.0335</v>
+      </c>
+      <c r="H62" s="46">
+        <v>2773.4880000000007</v>
+      </c>
+      <c r="I62" s="46">
+        <v>2453.0305000000003</v>
+      </c>
+      <c r="J62" s="46">
+        <v>2635.7844999999998</v>
+      </c>
+      <c r="K62" s="46">
+        <v>2989.3865000000001</v>
+      </c>
+      <c r="L62" s="46">
+        <v>3217.3455000000008</v>
+      </c>
+      <c r="M62" s="46">
+        <v>905.87050000000022</v>
+      </c>
+      <c r="N62" s="47">
+        <v>2659.5480000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="31"/>
+      <c r="B63" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="61">
+        <f>C60-C61-C62</f>
+        <v>2443.4969999999994</v>
+      </c>
+      <c r="D63" s="62">
+        <f t="shared" ref="D63:N63" si="17">D60-D61-D62</f>
+        <v>3358.085</v>
+      </c>
+      <c r="E63" s="62">
+        <f t="shared" si="17"/>
+        <v>1870.6075000000005</v>
+      </c>
+      <c r="F63" s="62">
+        <f t="shared" si="17"/>
+        <v>2015.5509999999986</v>
+      </c>
+      <c r="G63" s="62">
+        <f t="shared" si="17"/>
+        <v>1353.0209999999997</v>
+      </c>
+      <c r="H63" s="62">
+        <f t="shared" si="17"/>
+        <v>1617.0414999999989</v>
+      </c>
+      <c r="I63" s="62">
+        <f t="shared" si="17"/>
+        <v>4197.8339999999989</v>
+      </c>
+      <c r="J63" s="62">
+        <f t="shared" si="17"/>
+        <v>4987.7089999999998</v>
+      </c>
+      <c r="K63" s="62">
+        <f t="shared" si="17"/>
+        <v>5736.8764999999985</v>
+      </c>
+      <c r="L63" s="62">
+        <f t="shared" si="17"/>
+        <v>5925.6554999999989</v>
+      </c>
+      <c r="M63" s="62">
+        <f t="shared" si="17"/>
+        <v>2085.5585000000001</v>
+      </c>
+      <c r="N63" s="63">
+        <f t="shared" si="17"/>
+        <v>4698.9779999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="28">
+        <f>SUM(C7,C14,C21,C28,C35,C42,C49,C56,C63)</f>
+        <v>16054.267499999998</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" ref="D65:N65" si="18">SUM(D7,D14,D21,D28,D35,D42,D49,D56,D63)</f>
+        <v>15336.805999999997</v>
+      </c>
+      <c r="E65" s="13">
+        <f t="shared" si="18"/>
+        <v>16906.282500000001</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="18"/>
+        <v>14383.207999999999</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" si="18"/>
+        <v>12182.335000000003</v>
+      </c>
+      <c r="H65" s="13">
+        <f t="shared" si="18"/>
+        <v>11952.142499999998</v>
+      </c>
+      <c r="I65" s="13">
+        <f t="shared" si="18"/>
+        <v>11907.023999999998</v>
+      </c>
+      <c r="J65" s="13">
+        <f t="shared" si="18"/>
+        <v>12843.142499999998</v>
+      </c>
+      <c r="K65" s="13">
+        <f t="shared" si="18"/>
+        <v>14929.104499999998</v>
+      </c>
+      <c r="L65" s="13">
+        <f t="shared" si="18"/>
+        <v>14996.811</v>
+      </c>
+      <c r="M65" s="13">
+        <f t="shared" si="18"/>
+        <v>12612.196500000002</v>
+      </c>
+      <c r="N65" s="14">
+        <f t="shared" si="18"/>
+        <v>13050.897499999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="31"/>
+      <c r="B66" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="29">
+        <v>22000</v>
+      </c>
+      <c r="D66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="E66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="F66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="H66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="I66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="J66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="K66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="L66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="M66" s="22">
+        <v>22000</v>
+      </c>
+      <c r="N66" s="23">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="32"/>
+      <c r="B67" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="71">
+        <f>C65-C66</f>
+        <v>-5945.7325000000019</v>
+      </c>
+      <c r="D67" s="72">
+        <f t="shared" ref="D67:N67" si="19">D65-D66</f>
+        <v>-6663.1940000000031</v>
+      </c>
+      <c r="E67" s="72">
+        <f t="shared" si="19"/>
+        <v>-5093.7174999999988</v>
+      </c>
+      <c r="F67" s="72">
+        <f t="shared" si="19"/>
+        <v>-7616.7920000000013</v>
+      </c>
+      <c r="G67" s="72">
+        <f t="shared" si="19"/>
+        <v>-9817.6649999999972</v>
+      </c>
+      <c r="H67" s="72">
+        <f t="shared" si="19"/>
+        <v>-10047.857500000002</v>
+      </c>
+      <c r="I67" s="72">
+        <f t="shared" si="19"/>
+        <v>-10092.976000000002</v>
+      </c>
+      <c r="J67" s="72">
+        <f t="shared" si="19"/>
+        <v>-9156.8575000000019</v>
+      </c>
+      <c r="K67" s="72">
+        <f t="shared" si="19"/>
+        <v>-7070.8955000000024</v>
+      </c>
+      <c r="L67" s="72">
+        <f t="shared" si="19"/>
+        <v>-7003.1890000000003</v>
+      </c>
+      <c r="M67" s="72">
+        <f t="shared" si="19"/>
+        <v>-9387.8034999999982</v>
+      </c>
+      <c r="N67" s="73">
+        <f t="shared" si="19"/>
+        <v>-8949.1025000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A44:A49"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC5629-EF17-4750-AB17-EAF6EF4D90D7}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2734,12 +6974,3820 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92C99C-1814-4E3D-A858-E8B72E7A2A11}">
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C1" s="75">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="64">
+        <v>2018</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="H3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="K3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="L3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="M3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="N3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="O3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="P3" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>13</v>
+      </c>
+      <c r="G4" s="39">
+        <v>2</v>
+      </c>
+      <c r="H4" s="39">
+        <v>3</v>
+      </c>
+      <c r="I4" s="39">
+        <v>28</v>
+      </c>
+      <c r="J4" s="39">
+        <v>26</v>
+      </c>
+      <c r="K4" s="39">
+        <v>18</v>
+      </c>
+      <c r="L4" s="39">
+        <v>49</v>
+      </c>
+      <c r="M4" s="39">
+        <v>64</v>
+      </c>
+      <c r="N4" s="39">
+        <v>82</v>
+      </c>
+      <c r="O4" s="39">
+        <v>88</v>
+      </c>
+      <c r="P4" s="39">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>64</v>
+      </c>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C3*C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:E5" si="0">D3*D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
+        <f>F3*F4</f>
+        <v>22.099999999999998</v>
+      </c>
+      <c r="G5" s="58">
+        <f t="shared" ref="G5:Q5" si="1">G3*G4</f>
+        <v>3.4</v>
+      </c>
+      <c r="H5" s="58">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I5" s="58">
+        <f t="shared" si="1"/>
+        <v>47.6</v>
+      </c>
+      <c r="J5" s="58">
+        <f t="shared" si="1"/>
+        <v>44.199999999999996</v>
+      </c>
+      <c r="K5" s="58">
+        <f t="shared" si="1"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="L5" s="58">
+        <f t="shared" si="1"/>
+        <v>83.3</v>
+      </c>
+      <c r="M5" s="58">
+        <f t="shared" si="1"/>
+        <v>108.8</v>
+      </c>
+      <c r="N5" s="58">
+        <f t="shared" si="1"/>
+        <v>139.4</v>
+      </c>
+      <c r="O5" s="58">
+        <f t="shared" si="1"/>
+        <v>149.6</v>
+      </c>
+      <c r="P5" s="58">
+        <f t="shared" si="1"/>
+        <v>343.4</v>
+      </c>
+      <c r="Q5" s="59">
+        <f t="shared" si="1"/>
+        <v>108.8</v>
+      </c>
+      <c r="S5" s="68">
+        <v>2019</v>
+      </c>
+      <c r="T5" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="38"/>
+      <c r="B6" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2.21</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.51</v>
+      </c>
+      <c r="I6" s="35">
+        <v>2.3800000000000003</v>
+      </c>
+      <c r="J6" s="35">
+        <v>2.21</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1.53</v>
+      </c>
+      <c r="L6" s="35">
+        <v>4.165</v>
+      </c>
+      <c r="M6" s="35">
+        <v>5.44</v>
+      </c>
+      <c r="N6" s="35">
+        <v>6.9700000000000006</v>
+      </c>
+      <c r="O6" s="35">
+        <v>14.96</v>
+      </c>
+      <c r="P6" s="35">
+        <v>34.339999999999996</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>10.88</v>
+      </c>
+      <c r="S6" s="67"/>
+      <c r="T6" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="38"/>
+      <c r="B7" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>4.42</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.68</v>
+      </c>
+      <c r="H7" s="46">
+        <v>1.02</v>
+      </c>
+      <c r="I7" s="46">
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="J7" s="46">
+        <v>8.84</v>
+      </c>
+      <c r="K7" s="46">
+        <v>6.12</v>
+      </c>
+      <c r="L7" s="46">
+        <v>16.66</v>
+      </c>
+      <c r="M7" s="46">
+        <v>21.76</v>
+      </c>
+      <c r="N7" s="46">
+        <v>27.880000000000003</v>
+      </c>
+      <c r="O7" s="46">
+        <v>29.92</v>
+      </c>
+      <c r="P7" s="46">
+        <v>68.679999999999993</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>21.76</v>
+      </c>
+      <c r="S7" s="67"/>
+      <c r="T7" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26">
+        <f>C5-C6-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:E8" si="2">D5-D6-D7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <f>F5-F6-F7</f>
+        <v>15.469999999999997</v>
+      </c>
+      <c r="G8" s="62">
+        <f t="shared" ref="G8:Q8" si="3">G5-G6-G7</f>
+        <v>2.38</v>
+      </c>
+      <c r="H8" s="62">
+        <f t="shared" si="3"/>
+        <v>3.57</v>
+      </c>
+      <c r="I8" s="62">
+        <f t="shared" si="3"/>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="J8" s="62">
+        <f t="shared" si="3"/>
+        <v>33.149999999999991</v>
+      </c>
+      <c r="K8" s="62">
+        <f t="shared" si="3"/>
+        <v>22.949999999999996</v>
+      </c>
+      <c r="L8" s="62">
+        <f t="shared" si="3"/>
+        <v>62.474999999999994</v>
+      </c>
+      <c r="M8" s="62">
+        <f t="shared" si="3"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="N8" s="62">
+        <f t="shared" si="3"/>
+        <v>104.55000000000001</v>
+      </c>
+      <c r="O8" s="62">
+        <f t="shared" si="3"/>
+        <v>104.71999999999998</v>
+      </c>
+      <c r="P8" s="62">
+        <f t="shared" si="3"/>
+        <v>240.38</v>
+      </c>
+      <c r="Q8" s="63">
+        <f t="shared" si="3"/>
+        <v>76.16</v>
+      </c>
+      <c r="S8" s="67"/>
+      <c r="T8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="48">
+        <v>2.72</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="E10" s="50">
+        <v>2.72</v>
+      </c>
+      <c r="F10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="G10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="H10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="I10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="J10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="K10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="L10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="M10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="N10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="O10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="P10" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>2.72</v>
+      </c>
+      <c r="S10" s="67"/>
+      <c r="T10" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1264</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1176</v>
+      </c>
+      <c r="E11" s="51">
+        <v>944</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1222</v>
+      </c>
+      <c r="G11" s="39">
+        <v>1073</v>
+      </c>
+      <c r="H11" s="39">
+        <v>1237</v>
+      </c>
+      <c r="I11" s="39">
+        <v>1021</v>
+      </c>
+      <c r="J11" s="39">
+        <v>865</v>
+      </c>
+      <c r="K11" s="39">
+        <v>867</v>
+      </c>
+      <c r="L11" s="39">
+        <v>841</v>
+      </c>
+      <c r="M11" s="39">
+        <v>1087</v>
+      </c>
+      <c r="N11" s="39">
+        <v>1204</v>
+      </c>
+      <c r="O11" s="39">
+        <v>1195</v>
+      </c>
+      <c r="P11" s="39">
+        <v>370</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>946</v>
+      </c>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <f>C10*C11</f>
+        <v>3438.0800000000004</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:E12" si="4">D10*D11</f>
+        <v>3198.7200000000003</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>2567.6800000000003</v>
+      </c>
+      <c r="F12" s="57">
+        <f>F10*F11</f>
+        <v>3323.84</v>
+      </c>
+      <c r="G12" s="58">
+        <f t="shared" ref="G12:Q12" si="5">G10*G11</f>
+        <v>2918.5600000000004</v>
+      </c>
+      <c r="H12" s="58">
+        <f t="shared" si="5"/>
+        <v>3364.6400000000003</v>
+      </c>
+      <c r="I12" s="58">
+        <f t="shared" si="5"/>
+        <v>2777.1200000000003</v>
+      </c>
+      <c r="J12" s="58">
+        <f t="shared" si="5"/>
+        <v>2352.8000000000002</v>
+      </c>
+      <c r="K12" s="58">
+        <f t="shared" si="5"/>
+        <v>2358.2400000000002</v>
+      </c>
+      <c r="L12" s="58">
+        <f t="shared" si="5"/>
+        <v>2287.52</v>
+      </c>
+      <c r="M12" s="58">
+        <f t="shared" si="5"/>
+        <v>2956.6400000000003</v>
+      </c>
+      <c r="N12" s="58">
+        <f t="shared" si="5"/>
+        <v>3274.88</v>
+      </c>
+      <c r="O12" s="58">
+        <f t="shared" si="5"/>
+        <v>3250.4</v>
+      </c>
+      <c r="P12" s="58">
+        <f t="shared" si="5"/>
+        <v>1006.4000000000001</v>
+      </c>
+      <c r="Q12" s="59">
+        <f t="shared" si="5"/>
+        <v>2573.1200000000003</v>
+      </c>
+      <c r="S12" s="67"/>
+      <c r="T12" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="25">
+        <v>171.90400000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>159.93600000000004</v>
+      </c>
+      <c r="E13" s="5">
+        <v>128.38400000000001</v>
+      </c>
+      <c r="F13" s="34">
+        <v>332.38400000000001</v>
+      </c>
+      <c r="G13" s="35">
+        <v>291.85600000000005</v>
+      </c>
+      <c r="H13" s="35">
+        <v>336.46400000000006</v>
+      </c>
+      <c r="I13" s="35">
+        <v>138.85600000000002</v>
+      </c>
+      <c r="J13" s="35">
+        <v>117.64000000000001</v>
+      </c>
+      <c r="K13" s="35">
+        <v>117.91200000000002</v>
+      </c>
+      <c r="L13" s="35">
+        <v>114.376</v>
+      </c>
+      <c r="M13" s="35">
+        <v>147.83200000000002</v>
+      </c>
+      <c r="N13" s="35">
+        <v>163.74400000000003</v>
+      </c>
+      <c r="O13" s="35">
+        <v>325.04000000000002</v>
+      </c>
+      <c r="P13" s="35">
+        <v>100.64000000000001</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>257.31200000000007</v>
+      </c>
+      <c r="S13" s="67"/>
+      <c r="T13" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="25">
+        <v>687.6160000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>639.74400000000014</v>
+      </c>
+      <c r="E14" s="5">
+        <v>513.53600000000006</v>
+      </c>
+      <c r="F14" s="45">
+        <v>664.76800000000003</v>
+      </c>
+      <c r="G14" s="46">
+        <v>583.7120000000001</v>
+      </c>
+      <c r="H14" s="46">
+        <v>672.92800000000011</v>
+      </c>
+      <c r="I14" s="46">
+        <v>555.42400000000009</v>
+      </c>
+      <c r="J14" s="46">
+        <v>470.56000000000006</v>
+      </c>
+      <c r="K14" s="46">
+        <v>471.64800000000008</v>
+      </c>
+      <c r="L14" s="46">
+        <v>457.50400000000002</v>
+      </c>
+      <c r="M14" s="46">
+        <v>591.32800000000009</v>
+      </c>
+      <c r="N14" s="46">
+        <v>654.97600000000011</v>
+      </c>
+      <c r="O14" s="46">
+        <v>650.08000000000004</v>
+      </c>
+      <c r="P14" s="46">
+        <v>201.28000000000003</v>
+      </c>
+      <c r="Q14" s="47">
+        <v>514.62400000000014</v>
+      </c>
+      <c r="S14" s="67"/>
+      <c r="T14" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="26">
+        <f>C12-C13-C14</f>
+        <v>2578.5600000000004</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:E15" si="6">D12-D13-D14</f>
+        <v>2399.04</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="6"/>
+        <v>1925.7600000000002</v>
+      </c>
+      <c r="F15" s="61">
+        <f>F12-F13-F14</f>
+        <v>2326.6880000000001</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" ref="G15:Q15" si="7">G12-G13-G14</f>
+        <v>2042.9920000000002</v>
+      </c>
+      <c r="H15" s="62">
+        <f t="shared" si="7"/>
+        <v>2355.2480000000005</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" si="7"/>
+        <v>2082.84</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="7"/>
+        <v>1764.6000000000004</v>
+      </c>
+      <c r="K15" s="62">
+        <f t="shared" si="7"/>
+        <v>1768.6800000000003</v>
+      </c>
+      <c r="L15" s="62">
+        <f t="shared" si="7"/>
+        <v>1715.6399999999999</v>
+      </c>
+      <c r="M15" s="62">
+        <f t="shared" si="7"/>
+        <v>2217.4800000000005</v>
+      </c>
+      <c r="N15" s="62">
+        <f t="shared" si="7"/>
+        <v>2456.16</v>
+      </c>
+      <c r="O15" s="62">
+        <f t="shared" si="7"/>
+        <v>2275.2800000000002</v>
+      </c>
+      <c r="P15" s="62">
+        <f t="shared" si="7"/>
+        <v>704.48</v>
+      </c>
+      <c r="Q15" s="63">
+        <f t="shared" si="7"/>
+        <v>1801.1840000000002</v>
+      </c>
+      <c r="S15" s="67"/>
+      <c r="T15" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="48">
+        <v>3.8</v>
+      </c>
+      <c r="D17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="E17" s="50">
+        <v>3.8</v>
+      </c>
+      <c r="F17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="G17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="H17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="I17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="J17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="K17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="L17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="M17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="N17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="O17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="P17" s="41">
+        <v>3.8</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="39">
+        <v>314</v>
+      </c>
+      <c r="D18" s="39">
+        <v>300</v>
+      </c>
+      <c r="E18" s="51">
+        <v>358</v>
+      </c>
+      <c r="F18" s="39">
+        <v>504</v>
+      </c>
+      <c r="G18" s="39">
+        <v>706</v>
+      </c>
+      <c r="H18" s="39">
+        <v>482</v>
+      </c>
+      <c r="I18" s="39">
+        <v>381</v>
+      </c>
+      <c r="J18" s="39">
+        <v>285</v>
+      </c>
+      <c r="K18" s="39">
+        <v>277</v>
+      </c>
+      <c r="L18" s="39">
+        <v>242</v>
+      </c>
+      <c r="M18" s="39">
+        <v>197</v>
+      </c>
+      <c r="N18" s="39">
+        <v>239</v>
+      </c>
+      <c r="O18" s="39">
+        <v>359</v>
+      </c>
+      <c r="P18" s="39">
+        <v>397</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C17*C18</f>
+        <v>1193.2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:E19" si="8">D17*D18</f>
+        <v>1140</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="8"/>
+        <v>1360.3999999999999</v>
+      </c>
+      <c r="F19" s="57">
+        <f>F17*F18</f>
+        <v>1915.1999999999998</v>
+      </c>
+      <c r="G19" s="58">
+        <f t="shared" ref="G19:Q19" si="9">G17*G18</f>
+        <v>2682.7999999999997</v>
+      </c>
+      <c r="H19" s="58">
+        <f t="shared" si="9"/>
+        <v>1831.6</v>
+      </c>
+      <c r="I19" s="58">
+        <f t="shared" si="9"/>
+        <v>1447.8</v>
+      </c>
+      <c r="J19" s="58">
+        <f t="shared" si="9"/>
+        <v>1083</v>
+      </c>
+      <c r="K19" s="58">
+        <f t="shared" si="9"/>
+        <v>1052.5999999999999</v>
+      </c>
+      <c r="L19" s="58">
+        <f t="shared" si="9"/>
+        <v>919.59999999999991</v>
+      </c>
+      <c r="M19" s="58">
+        <f t="shared" si="9"/>
+        <v>748.59999999999991</v>
+      </c>
+      <c r="N19" s="58">
+        <f t="shared" si="9"/>
+        <v>908.19999999999993</v>
+      </c>
+      <c r="O19" s="58">
+        <f t="shared" si="9"/>
+        <v>1364.2</v>
+      </c>
+      <c r="P19" s="58">
+        <f t="shared" si="9"/>
+        <v>1508.6</v>
+      </c>
+      <c r="Q19" s="59">
+        <f t="shared" si="9"/>
+        <v>1170.3999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="25">
+        <v>59.660000000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>57</v>
+      </c>
+      <c r="E20" s="5">
+        <v>68.02</v>
+      </c>
+      <c r="F20" s="34">
+        <v>191.51999999999998</v>
+      </c>
+      <c r="G20" s="35">
+        <v>268.27999999999997</v>
+      </c>
+      <c r="H20" s="35">
+        <v>183.16</v>
+      </c>
+      <c r="I20" s="35">
+        <v>72.39</v>
+      </c>
+      <c r="J20" s="35">
+        <v>54.150000000000006</v>
+      </c>
+      <c r="K20" s="35">
+        <v>52.629999999999995</v>
+      </c>
+      <c r="L20" s="35">
+        <v>45.98</v>
+      </c>
+      <c r="M20" s="35">
+        <v>37.43</v>
+      </c>
+      <c r="N20" s="35">
+        <v>45.41</v>
+      </c>
+      <c r="O20" s="35">
+        <v>136.42000000000002</v>
+      </c>
+      <c r="P20" s="35">
+        <v>150.85999999999999</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>117.03999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="25">
+        <v>238.64000000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>228</v>
+      </c>
+      <c r="E21" s="5">
+        <v>272.08</v>
+      </c>
+      <c r="F21" s="45">
+        <v>383.03999999999996</v>
+      </c>
+      <c r="G21" s="46">
+        <v>536.55999999999995</v>
+      </c>
+      <c r="H21" s="46">
+        <v>366.32</v>
+      </c>
+      <c r="I21" s="46">
+        <v>289.56</v>
+      </c>
+      <c r="J21" s="46">
+        <v>216.60000000000002</v>
+      </c>
+      <c r="K21" s="46">
+        <v>210.51999999999998</v>
+      </c>
+      <c r="L21" s="46">
+        <v>183.92</v>
+      </c>
+      <c r="M21" s="46">
+        <v>149.72</v>
+      </c>
+      <c r="N21" s="46">
+        <v>181.64</v>
+      </c>
+      <c r="O21" s="46">
+        <v>272.84000000000003</v>
+      </c>
+      <c r="P21" s="46">
+        <v>301.71999999999997</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>234.07999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="26">
+        <f>C19-C20-C21</f>
+        <v>894.9</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" ref="D22:E22" si="10">D19-D20-D21</f>
+        <v>855</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="10"/>
+        <v>1020.3</v>
+      </c>
+      <c r="F22" s="61">
+        <f>F19-F20-F21</f>
+        <v>1340.6399999999999</v>
+      </c>
+      <c r="G22" s="62">
+        <f t="shared" ref="G22:Q22" si="11">G19-G20-G21</f>
+        <v>1877.9599999999996</v>
+      </c>
+      <c r="H22" s="62">
+        <f t="shared" si="11"/>
+        <v>1282.1199999999999</v>
+      </c>
+      <c r="I22" s="62">
+        <f t="shared" si="11"/>
+        <v>1085.8499999999999</v>
+      </c>
+      <c r="J22" s="62">
+        <f t="shared" si="11"/>
+        <v>812.24999999999989</v>
+      </c>
+      <c r="K22" s="62">
+        <f t="shared" si="11"/>
+        <v>789.44999999999993</v>
+      </c>
+      <c r="L22" s="62">
+        <f t="shared" si="11"/>
+        <v>689.69999999999993</v>
+      </c>
+      <c r="M22" s="62">
+        <f t="shared" si="11"/>
+        <v>561.44999999999993</v>
+      </c>
+      <c r="N22" s="62">
+        <f t="shared" si="11"/>
+        <v>681.15</v>
+      </c>
+      <c r="O22" s="62">
+        <f t="shared" si="11"/>
+        <v>954.93999999999994</v>
+      </c>
+      <c r="P22" s="62">
+        <f t="shared" si="11"/>
+        <v>1056.02</v>
+      </c>
+      <c r="Q22" s="63">
+        <f t="shared" si="11"/>
+        <v>819.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="48">
+        <v>1.9</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="50">
+        <v>1.9</v>
+      </c>
+      <c r="F24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="G24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="H24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="I24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="J24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="K24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="L24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="M24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="N24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="O24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="P24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="39">
+        <v>406</v>
+      </c>
+      <c r="D25" s="39">
+        <v>379</v>
+      </c>
+      <c r="E25" s="51">
+        <v>370</v>
+      </c>
+      <c r="F25" s="39">
+        <v>364</v>
+      </c>
+      <c r="G25" s="39">
+        <v>167</v>
+      </c>
+      <c r="H25" s="39">
+        <v>336</v>
+      </c>
+      <c r="I25" s="39">
+        <v>297</v>
+      </c>
+      <c r="J25" s="39">
+        <v>311</v>
+      </c>
+      <c r="K25" s="39">
+        <v>284</v>
+      </c>
+      <c r="L25" s="39">
+        <v>195</v>
+      </c>
+      <c r="M25" s="39">
+        <v>132</v>
+      </c>
+      <c r="N25" s="39">
+        <v>165</v>
+      </c>
+      <c r="O25" s="39">
+        <v>200</v>
+      </c>
+      <c r="P25" s="39">
+        <v>1029</v>
+      </c>
+      <c r="Q25" s="51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C24*C25</f>
+        <v>771.4</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:E26" si="12">D24*D25</f>
+        <v>720.1</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="12"/>
+        <v>703</v>
+      </c>
+      <c r="F26" s="57">
+        <f>F24*F25</f>
+        <v>691.6</v>
+      </c>
+      <c r="G26" s="58">
+        <f t="shared" ref="G26:Q26" si="13">G24*G25</f>
+        <v>317.3</v>
+      </c>
+      <c r="H26" s="58">
+        <f t="shared" si="13"/>
+        <v>638.4</v>
+      </c>
+      <c r="I26" s="58">
+        <f t="shared" si="13"/>
+        <v>564.29999999999995</v>
+      </c>
+      <c r="J26" s="58">
+        <f t="shared" si="13"/>
+        <v>590.9</v>
+      </c>
+      <c r="K26" s="58">
+        <f t="shared" si="13"/>
+        <v>539.6</v>
+      </c>
+      <c r="L26" s="58">
+        <f t="shared" si="13"/>
+        <v>370.5</v>
+      </c>
+      <c r="M26" s="58">
+        <f t="shared" si="13"/>
+        <v>250.79999999999998</v>
+      </c>
+      <c r="N26" s="58">
+        <f t="shared" si="13"/>
+        <v>313.5</v>
+      </c>
+      <c r="O26" s="58">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="P26" s="58">
+        <f t="shared" si="13"/>
+        <v>1955.1</v>
+      </c>
+      <c r="Q26" s="59">
+        <f t="shared" si="13"/>
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="25">
+        <v>38.57</v>
+      </c>
+      <c r="D27" s="3">
+        <v>36.005000000000003</v>
+      </c>
+      <c r="E27" s="5">
+        <v>35.15</v>
+      </c>
+      <c r="F27" s="34">
+        <v>69.160000000000011</v>
+      </c>
+      <c r="G27" s="35">
+        <v>31.730000000000004</v>
+      </c>
+      <c r="H27" s="35">
+        <v>63.84</v>
+      </c>
+      <c r="I27" s="35">
+        <v>28.215</v>
+      </c>
+      <c r="J27" s="35">
+        <v>29.545000000000002</v>
+      </c>
+      <c r="K27" s="35">
+        <v>26.980000000000004</v>
+      </c>
+      <c r="L27" s="35">
+        <v>18.525000000000002</v>
+      </c>
+      <c r="M27" s="35">
+        <v>12.54</v>
+      </c>
+      <c r="N27" s="35">
+        <v>15.675000000000001</v>
+      </c>
+      <c r="O27" s="35">
+        <v>38</v>
+      </c>
+      <c r="P27" s="35">
+        <v>195.51</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>42.370000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="25">
+        <v>154.28</v>
+      </c>
+      <c r="D28" s="3">
+        <v>144.02000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>140.6</v>
+      </c>
+      <c r="F28" s="45">
+        <v>138.32000000000002</v>
+      </c>
+      <c r="G28" s="46">
+        <v>63.460000000000008</v>
+      </c>
+      <c r="H28" s="46">
+        <v>127.68</v>
+      </c>
+      <c r="I28" s="46">
+        <v>112.86</v>
+      </c>
+      <c r="J28" s="46">
+        <v>118.18</v>
+      </c>
+      <c r="K28" s="46">
+        <v>107.92000000000002</v>
+      </c>
+      <c r="L28" s="46">
+        <v>74.100000000000009</v>
+      </c>
+      <c r="M28" s="46">
+        <v>50.16</v>
+      </c>
+      <c r="N28" s="46">
+        <v>62.7</v>
+      </c>
+      <c r="O28" s="46">
+        <v>76</v>
+      </c>
+      <c r="P28" s="46">
+        <v>391.02</v>
+      </c>
+      <c r="Q28" s="47">
+        <v>84.740000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="26">
+        <f>C26-C27-C28</f>
+        <v>578.54999999999995</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" ref="D29:E29" si="14">D26-D27-D28</f>
+        <v>540.07500000000005</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="14"/>
+        <v>527.25</v>
+      </c>
+      <c r="F29" s="61">
+        <f>F26-F27-F28</f>
+        <v>484.12</v>
+      </c>
+      <c r="G29" s="62">
+        <f t="shared" ref="G29:Q29" si="15">G26-G27-G28</f>
+        <v>222.10999999999999</v>
+      </c>
+      <c r="H29" s="62">
+        <f t="shared" si="15"/>
+        <v>446.87999999999994</v>
+      </c>
+      <c r="I29" s="62">
+        <f t="shared" si="15"/>
+        <v>423.22499999999991</v>
+      </c>
+      <c r="J29" s="62">
+        <f t="shared" si="15"/>
+        <v>443.17500000000001</v>
+      </c>
+      <c r="K29" s="62">
+        <f t="shared" si="15"/>
+        <v>404.7</v>
+      </c>
+      <c r="L29" s="62">
+        <f t="shared" si="15"/>
+        <v>277.875</v>
+      </c>
+      <c r="M29" s="62">
+        <f t="shared" si="15"/>
+        <v>188.1</v>
+      </c>
+      <c r="N29" s="62">
+        <f t="shared" si="15"/>
+        <v>235.125</v>
+      </c>
+      <c r="O29" s="62">
+        <f t="shared" si="15"/>
+        <v>266</v>
+      </c>
+      <c r="P29" s="62">
+        <f t="shared" si="15"/>
+        <v>1368.57</v>
+      </c>
+      <c r="Q29" s="63">
+        <f t="shared" si="15"/>
+        <v>296.58999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="48">
+        <v>5.96</v>
+      </c>
+      <c r="D31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="E31" s="50">
+        <v>5.96</v>
+      </c>
+      <c r="F31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="G31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="H31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="I31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="J31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="K31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="L31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="M31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="N31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="O31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="P31" s="41">
+        <v>5.96</v>
+      </c>
+      <c r="Q31" s="50">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="39">
+        <v>1074</v>
+      </c>
+      <c r="D32" s="39">
+        <v>971</v>
+      </c>
+      <c r="E32" s="51">
+        <v>865</v>
+      </c>
+      <c r="F32" s="39">
+        <v>940</v>
+      </c>
+      <c r="G32" s="39">
+        <v>132</v>
+      </c>
+      <c r="H32" s="39">
+        <v>1274</v>
+      </c>
+      <c r="I32" s="39">
+        <v>988</v>
+      </c>
+      <c r="J32" s="39">
+        <v>899</v>
+      </c>
+      <c r="K32" s="39">
+        <v>736</v>
+      </c>
+      <c r="L32" s="39">
+        <v>297</v>
+      </c>
+      <c r="M32" s="39">
+        <v>343</v>
+      </c>
+      <c r="N32" s="39">
+        <v>308</v>
+      </c>
+      <c r="O32" s="39">
+        <v>301</v>
+      </c>
+      <c r="P32" s="39">
+        <v>368</v>
+      </c>
+      <c r="Q32" s="51">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C31*C32</f>
+        <v>6401.04</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:E33" si="16">D31*D32</f>
+        <v>5787.16</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="16"/>
+        <v>5155.3999999999996</v>
+      </c>
+      <c r="F33" s="57">
+        <f>F31*F32</f>
+        <v>5602.4</v>
+      </c>
+      <c r="G33" s="58">
+        <f t="shared" ref="G33:Q33" si="17">G31*G32</f>
+        <v>786.72</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" si="17"/>
+        <v>7593.04</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" si="17"/>
+        <v>5888.48</v>
+      </c>
+      <c r="J33" s="58">
+        <f t="shared" si="17"/>
+        <v>5358.04</v>
+      </c>
+      <c r="K33" s="58">
+        <f t="shared" si="17"/>
+        <v>4386.5600000000004</v>
+      </c>
+      <c r="L33" s="58">
+        <f t="shared" si="17"/>
+        <v>1770.12</v>
+      </c>
+      <c r="M33" s="58">
+        <f t="shared" si="17"/>
+        <v>2044.28</v>
+      </c>
+      <c r="N33" s="58">
+        <f t="shared" si="17"/>
+        <v>1835.68</v>
+      </c>
+      <c r="O33" s="58">
+        <f t="shared" si="17"/>
+        <v>1793.96</v>
+      </c>
+      <c r="P33" s="58">
+        <f t="shared" si="17"/>
+        <v>2193.2800000000002</v>
+      </c>
+      <c r="Q33" s="59">
+        <f t="shared" si="17"/>
+        <v>1710.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="25">
+        <v>320.05200000000002</v>
+      </c>
+      <c r="D34" s="3">
+        <v>289.358</v>
+      </c>
+      <c r="E34" s="5">
+        <v>257.77</v>
+      </c>
+      <c r="F34" s="34">
+        <v>560.24</v>
+      </c>
+      <c r="G34" s="35">
+        <v>78.672000000000011</v>
+      </c>
+      <c r="H34" s="35">
+        <v>759.30400000000009</v>
+      </c>
+      <c r="I34" s="35">
+        <v>294.42399999999998</v>
+      </c>
+      <c r="J34" s="35">
+        <v>267.90199999999999</v>
+      </c>
+      <c r="K34" s="35">
+        <v>219.32800000000003</v>
+      </c>
+      <c r="L34" s="35">
+        <v>88.506</v>
+      </c>
+      <c r="M34" s="35">
+        <v>102.214</v>
+      </c>
+      <c r="N34" s="35">
+        <v>91.784000000000006</v>
+      </c>
+      <c r="O34" s="35">
+        <v>179.39600000000002</v>
+      </c>
+      <c r="P34" s="35">
+        <v>219.32800000000003</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>171.05200000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="25">
+        <v>987.16099999999994</v>
+      </c>
+      <c r="D35" s="3">
+        <v>911.99850000000004</v>
+      </c>
+      <c r="E35" s="5">
+        <v>846.59400000000005</v>
+      </c>
+      <c r="F35" s="45">
+        <v>1077.3335</v>
+      </c>
+      <c r="G35" s="46">
+        <v>133.08400000000003</v>
+      </c>
+      <c r="H35" s="46">
+        <v>1324.38</v>
+      </c>
+      <c r="I35" s="46">
+        <v>1110.1815000000001</v>
+      </c>
+      <c r="J35" s="46">
+        <v>984.65649999999994</v>
+      </c>
+      <c r="K35" s="46">
+        <v>773.85350000000005</v>
+      </c>
+      <c r="L35" s="46">
+        <v>629.03400000000011</v>
+      </c>
+      <c r="M35" s="46">
+        <v>727.12500000000011</v>
+      </c>
+      <c r="N35" s="46">
+        <v>664.11050000000012</v>
+      </c>
+      <c r="O35" s="46">
+        <v>643.99750000000006</v>
+      </c>
+      <c r="P35" s="46">
+        <v>546.75400000000002</v>
+      </c>
+      <c r="Q35" s="47">
+        <v>611.50350000000014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
+      <c r="B36" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="26">
+        <f>C33-C34-C35</f>
+        <v>5093.8270000000002</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" ref="D36:E36" si="18">D33-D34-D35</f>
+        <v>4585.8035</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="18"/>
+        <v>4051.0359999999991</v>
+      </c>
+      <c r="F36" s="61">
+        <f>F33-F34-F35</f>
+        <v>3964.8265000000001</v>
+      </c>
+      <c r="G36" s="62">
+        <f t="shared" ref="G36:Q36" si="19">G33-G34-G35</f>
+        <v>574.96399999999994</v>
+      </c>
+      <c r="H36" s="62">
+        <f t="shared" si="19"/>
+        <v>5509.3559999999998</v>
+      </c>
+      <c r="I36" s="62">
+        <f t="shared" si="19"/>
+        <v>4483.8744999999999</v>
+      </c>
+      <c r="J36" s="62">
+        <f t="shared" si="19"/>
+        <v>4105.4814999999999</v>
+      </c>
+      <c r="K36" s="62">
+        <f t="shared" si="19"/>
+        <v>3393.3784999999998</v>
+      </c>
+      <c r="L36" s="62">
+        <f t="shared" si="19"/>
+        <v>1052.5799999999997</v>
+      </c>
+      <c r="M36" s="62">
+        <f t="shared" si="19"/>
+        <v>1214.9409999999998</v>
+      </c>
+      <c r="N36" s="62">
+        <f t="shared" si="19"/>
+        <v>1079.7855</v>
+      </c>
+      <c r="O36" s="62">
+        <f t="shared" si="19"/>
+        <v>970.56650000000002</v>
+      </c>
+      <c r="P36" s="62">
+        <f t="shared" si="19"/>
+        <v>1427.1980000000003</v>
+      </c>
+      <c r="Q36" s="63">
+        <f t="shared" si="19"/>
+        <v>927.9644999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="48">
+        <v>5.39</v>
+      </c>
+      <c r="D38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="E38" s="50">
+        <v>5.39</v>
+      </c>
+      <c r="F38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="G38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="H38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="I38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="J38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="K38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="L38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="M38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="N38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="O38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="P38" s="41">
+        <v>5.39</v>
+      </c>
+      <c r="Q38" s="50">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="39">
+        <v>6</v>
+      </c>
+      <c r="D39" s="39">
+        <v>9</v>
+      </c>
+      <c r="E39" s="51">
+        <v>188</v>
+      </c>
+      <c r="F39" s="39">
+        <v>386</v>
+      </c>
+      <c r="G39" s="39">
+        <v>263</v>
+      </c>
+      <c r="H39" s="39">
+        <v>235</v>
+      </c>
+      <c r="I39" s="39">
+        <v>147</v>
+      </c>
+      <c r="J39" s="39">
+        <v>95</v>
+      </c>
+      <c r="K39" s="39">
+        <v>109</v>
+      </c>
+      <c r="L39" s="39">
+        <v>64</v>
+      </c>
+      <c r="M39" s="39">
+        <v>77</v>
+      </c>
+      <c r="N39" s="39">
+        <v>59</v>
+      </c>
+      <c r="O39" s="39">
+        <v>93</v>
+      </c>
+      <c r="P39" s="39">
+        <v>238</v>
+      </c>
+      <c r="Q39" s="51">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C38*C39</f>
+        <v>32.339999999999996</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:E40" si="20">D38*D39</f>
+        <v>48.51</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="20"/>
+        <v>1013.3199999999999</v>
+      </c>
+      <c r="F40" s="57">
+        <f>F38*F39</f>
+        <v>2080.54</v>
+      </c>
+      <c r="G40" s="58">
+        <f t="shared" ref="G40:Q40" si="21">G38*G39</f>
+        <v>1417.57</v>
+      </c>
+      <c r="H40" s="58">
+        <f t="shared" si="21"/>
+        <v>1266.6499999999999</v>
+      </c>
+      <c r="I40" s="58">
+        <f t="shared" si="21"/>
+        <v>792.32999999999993</v>
+      </c>
+      <c r="J40" s="58">
+        <f t="shared" si="21"/>
+        <v>512.04999999999995</v>
+      </c>
+      <c r="K40" s="58">
+        <f t="shared" si="21"/>
+        <v>587.51</v>
+      </c>
+      <c r="L40" s="58">
+        <f t="shared" si="21"/>
+        <v>344.96</v>
+      </c>
+      <c r="M40" s="58">
+        <f t="shared" si="21"/>
+        <v>415.03</v>
+      </c>
+      <c r="N40" s="58">
+        <f t="shared" si="21"/>
+        <v>318.01</v>
+      </c>
+      <c r="O40" s="58">
+        <f t="shared" si="21"/>
+        <v>501.27</v>
+      </c>
+      <c r="P40" s="58">
+        <f t="shared" si="21"/>
+        <v>1282.82</v>
+      </c>
+      <c r="Q40" s="59">
+        <f t="shared" si="21"/>
+        <v>393.46999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1.617</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.4255</v>
+      </c>
+      <c r="E41" s="5">
+        <v>50.665999999999997</v>
+      </c>
+      <c r="F41" s="34">
+        <v>208.054</v>
+      </c>
+      <c r="G41" s="35">
+        <v>141.75700000000001</v>
+      </c>
+      <c r="H41" s="35">
+        <v>126.66499999999999</v>
+      </c>
+      <c r="I41" s="35">
+        <v>39.616500000000002</v>
+      </c>
+      <c r="J41" s="35">
+        <v>25.602499999999999</v>
+      </c>
+      <c r="K41" s="35">
+        <v>29.375500000000002</v>
+      </c>
+      <c r="L41" s="35">
+        <v>17.248000000000001</v>
+      </c>
+      <c r="M41" s="35">
+        <v>20.7515</v>
+      </c>
+      <c r="N41" s="35">
+        <v>15.900500000000001</v>
+      </c>
+      <c r="O41" s="35">
+        <v>50.127000000000002</v>
+      </c>
+      <c r="P41" s="35">
+        <v>128.28200000000001</v>
+      </c>
+      <c r="Q41" s="36">
+        <v>39.347000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="25">
+        <f>0.2*C40</f>
+        <v>6.468</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="D42:E42" si="22">0.2*D40</f>
+        <v>9.702</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="22"/>
+        <v>202.66399999999999</v>
+      </c>
+      <c r="F42" s="45">
+        <v>416.108</v>
+      </c>
+      <c r="G42" s="46">
+        <v>283.51400000000001</v>
+      </c>
+      <c r="H42" s="46">
+        <v>253.32999999999998</v>
+      </c>
+      <c r="I42" s="46">
+        <v>158.46600000000001</v>
+      </c>
+      <c r="J42" s="46">
+        <v>102.41</v>
+      </c>
+      <c r="K42" s="46">
+        <v>117.50200000000001</v>
+      </c>
+      <c r="L42" s="46">
+        <v>68.992000000000004</v>
+      </c>
+      <c r="M42" s="46">
+        <v>83.006</v>
+      </c>
+      <c r="N42" s="46">
+        <v>63.602000000000004</v>
+      </c>
+      <c r="O42" s="46">
+        <v>100.254</v>
+      </c>
+      <c r="P42" s="46">
+        <v>256.56400000000002</v>
+      </c>
+      <c r="Q42" s="47">
+        <v>78.694000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="26">
+        <f>C40-C41-C42</f>
+        <v>24.254999999999995</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" ref="D43:E43" si="23">D40-D41-D42</f>
+        <v>36.3825</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="23"/>
+        <v>759.99</v>
+      </c>
+      <c r="F43" s="61">
+        <f>F40-F41-F42</f>
+        <v>1456.3779999999999</v>
+      </c>
+      <c r="G43" s="62">
+        <f t="shared" ref="G43:Q43" si="24">G40-G41-G42</f>
+        <v>992.29899999999986</v>
+      </c>
+      <c r="H43" s="62">
+        <f t="shared" si="24"/>
+        <v>886.65499999999997</v>
+      </c>
+      <c r="I43" s="62">
+        <f t="shared" si="24"/>
+        <v>594.24749999999995</v>
+      </c>
+      <c r="J43" s="62">
+        <f t="shared" si="24"/>
+        <v>384.03749999999991</v>
+      </c>
+      <c r="K43" s="62">
+        <f t="shared" si="24"/>
+        <v>440.63249999999999</v>
+      </c>
+      <c r="L43" s="62">
+        <f t="shared" si="24"/>
+        <v>258.71999999999997</v>
+      </c>
+      <c r="M43" s="62">
+        <f t="shared" si="24"/>
+        <v>311.27249999999992</v>
+      </c>
+      <c r="N43" s="62">
+        <f t="shared" si="24"/>
+        <v>238.50749999999996</v>
+      </c>
+      <c r="O43" s="62">
+        <f t="shared" si="24"/>
+        <v>350.88899999999995</v>
+      </c>
+      <c r="P43" s="62">
+        <f t="shared" si="24"/>
+        <v>897.97399999999993</v>
+      </c>
+      <c r="Q43" s="63">
+        <f t="shared" si="24"/>
+        <v>275.42899999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="48">
+        <v>5.52</v>
+      </c>
+      <c r="D45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="E45" s="50">
+        <v>5.52</v>
+      </c>
+      <c r="F45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="G45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="H45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="I45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="J45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="K45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="L45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="M45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="N45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="O45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="P45" s="41">
+        <v>5.52</v>
+      </c>
+      <c r="Q45" s="50">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="39">
+        <v>478</v>
+      </c>
+      <c r="D46" s="39">
+        <v>591</v>
+      </c>
+      <c r="E46" s="51">
+        <v>695</v>
+      </c>
+      <c r="F46" s="39">
+        <v>786</v>
+      </c>
+      <c r="G46" s="39">
+        <v>1080</v>
+      </c>
+      <c r="H46" s="39">
+        <v>924</v>
+      </c>
+      <c r="I46" s="39">
+        <v>719</v>
+      </c>
+      <c r="J46" s="39">
+        <v>659</v>
+      </c>
+      <c r="K46" s="39">
+        <v>703</v>
+      </c>
+      <c r="L46" s="39">
+        <v>686</v>
+      </c>
+      <c r="M46" s="39">
+        <v>632</v>
+      </c>
+      <c r="N46" s="39">
+        <v>777</v>
+      </c>
+      <c r="O46" s="39">
+        <v>712</v>
+      </c>
+      <c r="P46" s="39">
+        <v>1132</v>
+      </c>
+      <c r="Q46" s="51">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
+        <f>C45*C46</f>
+        <v>2638.56</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:E47" si="25">D45*D46</f>
+        <v>3262.3199999999997</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="25"/>
+        <v>3836.3999999999996</v>
+      </c>
+      <c r="F47" s="57">
+        <f>F45*F46</f>
+        <v>4338.7199999999993</v>
+      </c>
+      <c r="G47" s="58">
+        <f t="shared" ref="G47:Q47" si="26">G45*G46</f>
+        <v>5961.5999999999995</v>
+      </c>
+      <c r="H47" s="58">
+        <f t="shared" si="26"/>
+        <v>5100.4799999999996</v>
+      </c>
+      <c r="I47" s="58">
+        <f t="shared" si="26"/>
+        <v>3968.8799999999997</v>
+      </c>
+      <c r="J47" s="58">
+        <f t="shared" si="26"/>
+        <v>3637.68</v>
+      </c>
+      <c r="K47" s="58">
+        <f t="shared" si="26"/>
+        <v>3880.5599999999995</v>
+      </c>
+      <c r="L47" s="58">
+        <f t="shared" si="26"/>
+        <v>3786.72</v>
+      </c>
+      <c r="M47" s="58">
+        <f t="shared" si="26"/>
+        <v>3488.64</v>
+      </c>
+      <c r="N47" s="58">
+        <f t="shared" si="26"/>
+        <v>4289.04</v>
+      </c>
+      <c r="O47" s="58">
+        <f t="shared" si="26"/>
+        <v>3930.24</v>
+      </c>
+      <c r="P47" s="58">
+        <f t="shared" si="26"/>
+        <v>6248.6399999999994</v>
+      </c>
+      <c r="Q47" s="59">
+        <f t="shared" si="26"/>
+        <v>3759.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="25">
+        <v>131.928</v>
+      </c>
+      <c r="D48" s="3">
+        <v>163.11599999999999</v>
+      </c>
+      <c r="E48" s="5">
+        <v>191.82</v>
+      </c>
+      <c r="F48" s="34">
+        <v>253.72</v>
+      </c>
+      <c r="G48" s="35">
+        <v>110.1</v>
+      </c>
+      <c r="H48" s="35">
+        <v>314.19</v>
+      </c>
+      <c r="I48" s="35">
+        <v>198.44399999999999</v>
+      </c>
+      <c r="J48" s="35">
+        <v>181.88400000000001</v>
+      </c>
+      <c r="K48" s="35">
+        <v>194.02799999999999</v>
+      </c>
+      <c r="L48" s="35">
+        <v>189.33600000000001</v>
+      </c>
+      <c r="M48" s="35">
+        <v>174.43200000000002</v>
+      </c>
+      <c r="N48" s="35">
+        <v>214.452</v>
+      </c>
+      <c r="O48" s="35">
+        <v>393.024</v>
+      </c>
+      <c r="P48" s="35">
+        <v>624.86400000000003</v>
+      </c>
+      <c r="Q48" s="36">
+        <v>375.91200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="31"/>
+      <c r="B49" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="25">
+        <v>527.71199999999999</v>
+      </c>
+      <c r="D49" s="3">
+        <v>652.46399999999994</v>
+      </c>
+      <c r="E49" s="5">
+        <v>767.28</v>
+      </c>
+      <c r="F49" s="45">
+        <v>867.74399999999991</v>
+      </c>
+      <c r="G49" s="46">
+        <v>1192.32</v>
+      </c>
+      <c r="H49" s="46">
+        <v>1020.096</v>
+      </c>
+      <c r="I49" s="46">
+        <v>793.77599999999995</v>
+      </c>
+      <c r="J49" s="46">
+        <v>727.53600000000006</v>
+      </c>
+      <c r="K49" s="46">
+        <v>776.11199999999997</v>
+      </c>
+      <c r="L49" s="46">
+        <v>757.34400000000005</v>
+      </c>
+      <c r="M49" s="46">
+        <v>697.72800000000007</v>
+      </c>
+      <c r="N49" s="46">
+        <v>857.80799999999999</v>
+      </c>
+      <c r="O49" s="46">
+        <v>786.048</v>
+      </c>
+      <c r="P49" s="46">
+        <v>1249.7280000000001</v>
+      </c>
+      <c r="Q49" s="47">
+        <v>751.82400000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="31"/>
+      <c r="B50" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="26">
+        <f>C47-C48-C49</f>
+        <v>1978.92</v>
+      </c>
+      <c r="D50" s="16">
+        <f t="shared" ref="D50:E50" si="27">D47-D48-D49</f>
+        <v>2446.7399999999998</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" si="27"/>
+        <v>2877.2999999999993</v>
+      </c>
+      <c r="F50" s="61">
+        <f>F47-F48-F49</f>
+        <v>3217.2559999999994</v>
+      </c>
+      <c r="G50" s="62">
+        <f t="shared" ref="G50:Q50" si="28">G47-G48-G49</f>
+        <v>4659.1799999999994</v>
+      </c>
+      <c r="H50" s="62">
+        <f t="shared" si="28"/>
+        <v>3766.194</v>
+      </c>
+      <c r="I50" s="62">
+        <f t="shared" si="28"/>
+        <v>2976.66</v>
+      </c>
+      <c r="J50" s="62">
+        <f t="shared" si="28"/>
+        <v>2728.2599999999998</v>
+      </c>
+      <c r="K50" s="62">
+        <f t="shared" si="28"/>
+        <v>2910.4199999999996</v>
+      </c>
+      <c r="L50" s="62">
+        <f t="shared" si="28"/>
+        <v>2840.04</v>
+      </c>
+      <c r="M50" s="62">
+        <f t="shared" si="28"/>
+        <v>2616.4799999999996</v>
+      </c>
+      <c r="N50" s="62">
+        <f t="shared" si="28"/>
+        <v>3216.7799999999997</v>
+      </c>
+      <c r="O50" s="62">
+        <f t="shared" si="28"/>
+        <v>2751.1679999999997</v>
+      </c>
+      <c r="P50" s="62">
+        <f t="shared" si="28"/>
+        <v>4374.0479999999998</v>
+      </c>
+      <c r="Q50" s="63">
+        <f t="shared" si="28"/>
+        <v>2631.3839999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="48">
+        <v>5.64</v>
+      </c>
+      <c r="D52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="E52" s="50">
+        <v>5.64</v>
+      </c>
+      <c r="F52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="G52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="H52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="I52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="J52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="K52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="L52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="M52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="N52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="O52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="P52" s="41">
+        <v>5.64</v>
+      </c>
+      <c r="Q52" s="50">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="31"/>
+      <c r="B53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="39">
+        <v>130</v>
+      </c>
+      <c r="D53" s="39">
+        <v>164</v>
+      </c>
+      <c r="E53" s="51">
+        <v>137</v>
+      </c>
+      <c r="F53" s="39">
+        <v>204</v>
+      </c>
+      <c r="G53" s="39">
+        <v>407</v>
+      </c>
+      <c r="H53" s="39">
+        <v>199</v>
+      </c>
+      <c r="I53" s="39">
+        <v>162</v>
+      </c>
+      <c r="J53" s="39">
+        <v>132</v>
+      </c>
+      <c r="K53" s="39">
+        <v>143</v>
+      </c>
+      <c r="L53" s="39">
+        <v>192</v>
+      </c>
+      <c r="M53" s="39">
+        <v>157</v>
+      </c>
+      <c r="N53" s="39">
+        <v>279</v>
+      </c>
+      <c r="O53" s="39">
+        <v>354</v>
+      </c>
+      <c r="P53" s="39">
+        <v>116</v>
+      </c>
+      <c r="Q53" s="51">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="31"/>
+      <c r="B54" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2">
+        <f>C52*C53</f>
+        <v>733.19999999999993</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:E54" si="29">D52*D53</f>
+        <v>924.95999999999992</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="29"/>
+        <v>772.68</v>
+      </c>
+      <c r="F54" s="57">
+        <f>F52*F53</f>
+        <v>1150.56</v>
+      </c>
+      <c r="G54" s="58">
+        <f t="shared" ref="G54:Q54" si="30">G52*G53</f>
+        <v>2295.48</v>
+      </c>
+      <c r="H54" s="58">
+        <f t="shared" si="30"/>
+        <v>1122.3599999999999</v>
+      </c>
+      <c r="I54" s="58">
+        <f t="shared" si="30"/>
+        <v>913.68</v>
+      </c>
+      <c r="J54" s="58">
+        <f t="shared" si="30"/>
+        <v>744.4799999999999</v>
+      </c>
+      <c r="K54" s="58">
+        <f t="shared" si="30"/>
+        <v>806.52</v>
+      </c>
+      <c r="L54" s="58">
+        <f t="shared" si="30"/>
+        <v>1082.8799999999999</v>
+      </c>
+      <c r="M54" s="58">
+        <f t="shared" si="30"/>
+        <v>885.4799999999999</v>
+      </c>
+      <c r="N54" s="58">
+        <f t="shared" si="30"/>
+        <v>1573.56</v>
+      </c>
+      <c r="O54" s="58">
+        <f t="shared" si="30"/>
+        <v>1996.56</v>
+      </c>
+      <c r="P54" s="58">
+        <f t="shared" si="30"/>
+        <v>654.24</v>
+      </c>
+      <c r="Q54" s="59">
+        <f t="shared" si="30"/>
+        <v>2177.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="31"/>
+      <c r="B55" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="25">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="D55" s="3">
+        <v>46.247999999999998</v>
+      </c>
+      <c r="E55" s="5">
+        <v>38.634</v>
+      </c>
+      <c r="F55" s="34">
+        <v>115.056</v>
+      </c>
+      <c r="G55" s="35">
+        <v>229.548</v>
+      </c>
+      <c r="H55" s="35">
+        <v>112.23599999999999</v>
+      </c>
+      <c r="I55" s="35">
+        <v>45.683999999999997</v>
+      </c>
+      <c r="J55" s="35">
+        <v>37.223999999999997</v>
+      </c>
+      <c r="K55" s="35">
+        <v>40.326000000000001</v>
+      </c>
+      <c r="L55" s="35">
+        <v>54.143999999999998</v>
+      </c>
+      <c r="M55" s="35">
+        <v>44.274000000000001</v>
+      </c>
+      <c r="N55" s="35">
+        <v>78.677999999999997</v>
+      </c>
+      <c r="O55" s="35">
+        <v>199.65600000000001</v>
+      </c>
+      <c r="P55" s="35">
+        <v>65.424000000000007</v>
+      </c>
+      <c r="Q55" s="36">
+        <v>217.70400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="31"/>
+      <c r="B56" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="25">
+        <v>146.63999999999999</v>
+      </c>
+      <c r="D56" s="3">
+        <v>184.99199999999999</v>
+      </c>
+      <c r="E56" s="5">
+        <v>154.536</v>
+      </c>
+      <c r="F56" s="45">
+        <v>230.11199999999999</v>
+      </c>
+      <c r="G56" s="46">
+        <v>459.096</v>
+      </c>
+      <c r="H56" s="46">
+        <v>224.47199999999998</v>
+      </c>
+      <c r="I56" s="46">
+        <v>182.73599999999999</v>
+      </c>
+      <c r="J56" s="46">
+        <v>148.89599999999999</v>
+      </c>
+      <c r="K56" s="46">
+        <v>161.304</v>
+      </c>
+      <c r="L56" s="46">
+        <v>216.57599999999999</v>
+      </c>
+      <c r="M56" s="46">
+        <v>177.096</v>
+      </c>
+      <c r="N56" s="46">
+        <v>314.71199999999999</v>
+      </c>
+      <c r="O56" s="46">
+        <v>399.31200000000001</v>
+      </c>
+      <c r="P56" s="46">
+        <v>130.84800000000001</v>
+      </c>
+      <c r="Q56" s="47">
+        <v>435.40800000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="31"/>
+      <c r="B57" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="26">
+        <f>C54-C55-C56</f>
+        <v>549.9</v>
+      </c>
+      <c r="D57" s="16">
+        <f t="shared" ref="D57:E57" si="31">D54-D55-D56</f>
+        <v>693.71999999999991</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" si="31"/>
+        <v>579.51</v>
+      </c>
+      <c r="F57" s="61">
+        <f>F54-F55-F56</f>
+        <v>805.39199999999994</v>
+      </c>
+      <c r="G57" s="62">
+        <f t="shared" ref="G57:Q57" si="32">G54-G55-G56</f>
+        <v>1606.8359999999998</v>
+      </c>
+      <c r="H57" s="62">
+        <f t="shared" si="32"/>
+        <v>785.65199999999993</v>
+      </c>
+      <c r="I57" s="62">
+        <f t="shared" si="32"/>
+        <v>685.26</v>
+      </c>
+      <c r="J57" s="62">
+        <f t="shared" si="32"/>
+        <v>558.3599999999999</v>
+      </c>
+      <c r="K57" s="62">
+        <f t="shared" si="32"/>
+        <v>604.89</v>
+      </c>
+      <c r="L57" s="62">
+        <f t="shared" si="32"/>
+        <v>812.15999999999985</v>
+      </c>
+      <c r="M57" s="62">
+        <f t="shared" si="32"/>
+        <v>664.1099999999999</v>
+      </c>
+      <c r="N57" s="62">
+        <f t="shared" si="32"/>
+        <v>1180.17</v>
+      </c>
+      <c r="O57" s="62">
+        <f t="shared" si="32"/>
+        <v>1397.5920000000001</v>
+      </c>
+      <c r="P57" s="62">
+        <f t="shared" si="32"/>
+        <v>457.96800000000002</v>
+      </c>
+      <c r="Q57" s="63">
+        <f t="shared" si="32"/>
+        <v>1523.9279999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="48">
+        <v>7.21</v>
+      </c>
+      <c r="D59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="E59" s="50">
+        <v>7.21</v>
+      </c>
+      <c r="F59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="G59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="H59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="I59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="J59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="K59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="L59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="M59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="N59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="O59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="P59" s="41">
+        <v>7.21</v>
+      </c>
+      <c r="Q59" s="50">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="31"/>
+      <c r="B60" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="39">
+        <v>916</v>
+      </c>
+      <c r="D60" s="39">
+        <v>907</v>
+      </c>
+      <c r="E60" s="51">
+        <v>590</v>
+      </c>
+      <c r="F60" s="39">
+        <v>906</v>
+      </c>
+      <c r="G60" s="39">
+        <v>684</v>
+      </c>
+      <c r="H60" s="39">
+        <v>886</v>
+      </c>
+      <c r="I60" s="39">
+        <v>740</v>
+      </c>
+      <c r="J60" s="39">
+        <v>591</v>
+      </c>
+      <c r="K60" s="39">
+        <v>641</v>
+      </c>
+      <c r="L60" s="39">
+        <v>971</v>
+      </c>
+      <c r="M60" s="39">
+        <v>1113</v>
+      </c>
+      <c r="N60" s="39">
+        <v>1274</v>
+      </c>
+      <c r="O60" s="39">
+        <v>1409</v>
+      </c>
+      <c r="P60" s="39">
+        <v>461</v>
+      </c>
+      <c r="Q60" s="51">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2">
+        <f>C59*C60</f>
+        <v>6604.36</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" ref="D61:E61" si="33">D59*D60</f>
+        <v>6539.47</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="33"/>
+        <v>4253.8999999999996</v>
+      </c>
+      <c r="F61" s="57">
+        <f>F59*F60</f>
+        <v>6532.26</v>
+      </c>
+      <c r="G61" s="58">
+        <f t="shared" ref="G61:Q61" si="34">G59*G60</f>
+        <v>4931.6400000000003</v>
+      </c>
+      <c r="H61" s="58">
+        <f t="shared" si="34"/>
+        <v>6388.06</v>
+      </c>
+      <c r="I61" s="58">
+        <f t="shared" si="34"/>
+        <v>5335.4</v>
+      </c>
+      <c r="J61" s="58">
+        <f t="shared" si="34"/>
+        <v>4261.1099999999997</v>
+      </c>
+      <c r="K61" s="58">
+        <f t="shared" si="34"/>
+        <v>4621.6099999999997</v>
+      </c>
+      <c r="L61" s="58">
+        <f t="shared" si="34"/>
+        <v>7000.91</v>
+      </c>
+      <c r="M61" s="58">
+        <f t="shared" si="34"/>
+        <v>8024.73</v>
+      </c>
+      <c r="N61" s="58">
+        <f t="shared" si="34"/>
+        <v>9185.5399999999991</v>
+      </c>
+      <c r="O61" s="58">
+        <f t="shared" si="34"/>
+        <v>10158.89</v>
+      </c>
+      <c r="P61" s="58">
+        <f t="shared" si="34"/>
+        <v>3323.81</v>
+      </c>
+      <c r="Q61" s="59">
+        <f t="shared" si="34"/>
+        <v>8176.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="31"/>
+      <c r="B62" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="25">
+        <v>330.21800000000002</v>
+      </c>
+      <c r="D62" s="3">
+        <v>326.97350000000006</v>
+      </c>
+      <c r="E62" s="5">
+        <v>212.69499999999999</v>
+      </c>
+      <c r="F62" s="34">
+        <v>653.22600000000011</v>
+      </c>
+      <c r="G62" s="35">
+        <v>493.16400000000004</v>
+      </c>
+      <c r="H62" s="35">
+        <v>638.80600000000004</v>
+      </c>
+      <c r="I62" s="35">
+        <v>266.77</v>
+      </c>
+      <c r="J62" s="35">
+        <v>213.05549999999999</v>
+      </c>
+      <c r="K62" s="35">
+        <v>231.0805</v>
+      </c>
+      <c r="L62" s="35">
+        <v>350.0455</v>
+      </c>
+      <c r="M62" s="35">
+        <v>401.23649999999998</v>
+      </c>
+      <c r="N62" s="35">
+        <v>459.27699999999999</v>
+      </c>
+      <c r="O62" s="35">
+        <v>1015.889</v>
+      </c>
+      <c r="P62" s="35">
+        <v>332.38100000000003</v>
+      </c>
+      <c r="Q62" s="36">
+        <v>817.61400000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="31"/>
+      <c r="B63" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="25">
+        <v>3508.1745000000001</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3215.3115000000003</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2070.9510000000005</v>
+      </c>
+      <c r="F63" s="45">
+        <v>3435.5370000000003</v>
+      </c>
+      <c r="G63" s="46">
+        <v>1080.3910000000003</v>
+      </c>
+      <c r="H63" s="46">
+        <v>3878.6465000000003</v>
+      </c>
+      <c r="I63" s="46">
+        <v>3053.0790000000006</v>
+      </c>
+      <c r="J63" s="46">
+        <v>2695.0335</v>
+      </c>
+      <c r="K63" s="46">
+        <v>2773.4880000000007</v>
+      </c>
+      <c r="L63" s="46">
+        <v>2453.0305000000003</v>
+      </c>
+      <c r="M63" s="46">
+        <v>2635.7844999999998</v>
+      </c>
+      <c r="N63" s="46">
+        <v>2989.3865000000001</v>
+      </c>
+      <c r="O63" s="46">
+        <v>3217.3455000000008</v>
+      </c>
+      <c r="P63" s="46">
+        <v>905.87050000000022</v>
+      </c>
+      <c r="Q63" s="47">
+        <v>2659.5480000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="31"/>
+      <c r="B64" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="26">
+        <f>C61-C62-C63</f>
+        <v>2765.9674999999997</v>
+      </c>
+      <c r="D64" s="16">
+        <f t="shared" ref="D64:E64" si="35">D61-D62-D63</f>
+        <v>2997.1849999999999</v>
+      </c>
+      <c r="E64" s="17">
+        <f t="shared" si="35"/>
+        <v>1970.253999999999</v>
+      </c>
+      <c r="F64" s="61">
+        <f>F61-F62-F63</f>
+        <v>2443.4969999999994</v>
+      </c>
+      <c r="G64" s="62">
+        <f t="shared" ref="G64:Q64" si="36">G61-G62-G63</f>
+        <v>3358.085</v>
+      </c>
+      <c r="H64" s="62">
+        <f t="shared" si="36"/>
+        <v>1870.6075000000005</v>
+      </c>
+      <c r="I64" s="62">
+        <f t="shared" si="36"/>
+        <v>2015.5509999999986</v>
+      </c>
+      <c r="J64" s="62">
+        <f t="shared" si="36"/>
+        <v>1353.0209999999997</v>
+      </c>
+      <c r="K64" s="62">
+        <f t="shared" si="36"/>
+        <v>1617.0414999999989</v>
+      </c>
+      <c r="L64" s="62">
+        <f t="shared" si="36"/>
+        <v>4197.8339999999989</v>
+      </c>
+      <c r="M64" s="62">
+        <f t="shared" si="36"/>
+        <v>4987.7089999999998</v>
+      </c>
+      <c r="N64" s="62">
+        <f t="shared" si="36"/>
+        <v>5736.8764999999985</v>
+      </c>
+      <c r="O64" s="62">
+        <f t="shared" si="36"/>
+        <v>5925.6554999999989</v>
+      </c>
+      <c r="P64" s="62">
+        <f t="shared" si="36"/>
+        <v>2085.5585000000001</v>
+      </c>
+      <c r="Q64" s="63">
+        <f t="shared" si="36"/>
+        <v>4698.9779999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="7"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="28">
+        <f>SUM(C8,C15,C22,C29,C36,C43,C50,C57,C64)</f>
+        <v>14464.879499999999</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" ref="D66:E66" si="37">SUM(D8,D15,D22,D29,D36,D43,D50,D57,D64)</f>
+        <v>14553.945999999998</v>
+      </c>
+      <c r="E66" s="14">
+        <f t="shared" si="37"/>
+        <v>13711.399999999998</v>
+      </c>
+      <c r="F66" s="28">
+        <f>SUM(F8,F15,F22,F29,F36,F43,F50,F57,F64)</f>
+        <v>16054.267499999998</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" ref="G66:Q66" si="38">SUM(G8,G15,G22,G29,G36,G43,G50,G57,G64)</f>
+        <v>15336.805999999997</v>
+      </c>
+      <c r="H66" s="13">
+        <f t="shared" si="38"/>
+        <v>16906.282500000001</v>
+      </c>
+      <c r="I66" s="13">
+        <f t="shared" si="38"/>
+        <v>14383.207999999999</v>
+      </c>
+      <c r="J66" s="13">
+        <f t="shared" si="38"/>
+        <v>12182.335000000003</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="38"/>
+        <v>11952.142499999998</v>
+      </c>
+      <c r="L66" s="13">
+        <f t="shared" si="38"/>
+        <v>11907.023999999998</v>
+      </c>
+      <c r="M66" s="13">
+        <f t="shared" si="38"/>
+        <v>12843.142499999998</v>
+      </c>
+      <c r="N66" s="13">
+        <f t="shared" si="38"/>
+        <v>14929.104499999998</v>
+      </c>
+      <c r="O66" s="13">
+        <f t="shared" si="38"/>
+        <v>14996.811</v>
+      </c>
+      <c r="P66" s="13">
+        <f t="shared" si="38"/>
+        <v>12612.196500000002</v>
+      </c>
+      <c r="Q66" s="14">
+        <f t="shared" si="38"/>
+        <v>13050.897499999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="31"/>
+      <c r="B67" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="29">
+        <v>22000</v>
+      </c>
+      <c r="D67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="E67" s="23">
+        <v>22000</v>
+      </c>
+      <c r="F67" s="29">
+        <v>22000</v>
+      </c>
+      <c r="G67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="H67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="I67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="J67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="K67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="L67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="M67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="N67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="O67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="P67" s="22">
+        <v>22000</v>
+      </c>
+      <c r="Q67" s="23">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="32"/>
+      <c r="B68" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="30">
+        <f>C66-C67</f>
+        <v>-7535.1205000000009</v>
+      </c>
+      <c r="D68" s="19">
+        <f t="shared" ref="D68:E68" si="39">D66-D67</f>
+        <v>-7446.0540000000019</v>
+      </c>
+      <c r="E68" s="20">
+        <f t="shared" si="39"/>
+        <v>-8288.6000000000022</v>
+      </c>
+      <c r="F68" s="71">
+        <f>F66-F67</f>
+        <v>-5945.7325000000019</v>
+      </c>
+      <c r="G68" s="72">
+        <f t="shared" ref="G68:Q68" si="40">G66-G67</f>
+        <v>-6663.1940000000031</v>
+      </c>
+      <c r="H68" s="72">
+        <f t="shared" si="40"/>
+        <v>-5093.7174999999988</v>
+      </c>
+      <c r="I68" s="72">
+        <f t="shared" si="40"/>
+        <v>-7616.7920000000013</v>
+      </c>
+      <c r="J68" s="72">
+        <f t="shared" si="40"/>
+        <v>-9817.6649999999972</v>
+      </c>
+      <c r="K68" s="72">
+        <f t="shared" si="40"/>
+        <v>-10047.857500000002</v>
+      </c>
+      <c r="L68" s="72">
+        <f t="shared" si="40"/>
+        <v>-10092.976000000002</v>
+      </c>
+      <c r="M68" s="72">
+        <f t="shared" si="40"/>
+        <v>-9156.8575000000019</v>
+      </c>
+      <c r="N68" s="72">
+        <f t="shared" si="40"/>
+        <v>-7070.8955000000024</v>
+      </c>
+      <c r="O68" s="72">
+        <f t="shared" si="40"/>
+        <v>-7003.1890000000003</v>
+      </c>
+      <c r="P68" s="72">
+        <f t="shared" si="40"/>
+        <v>-9387.8034999999982</v>
+      </c>
+      <c r="Q68" s="73">
+        <f t="shared" si="40"/>
+        <v>-8949.1025000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4F353E-BE39-4560-8837-577C9996B049}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" s="74">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="78">
+        <f>IFERROR((Combined_Data!D4-Combined_Data!C4)/((Combined_Data!D3-Combined_Data!D6)-(Combined_Data!C3-Combined_Data!C6)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="78">
+        <f>IFERROR((Combined_Data!E4-Combined_Data!D4)/((Combined_Data!E3-Combined_Data!E6)-(Combined_Data!D3-Combined_Data!D6)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="78">
+        <f>IFERROR((Combined_Data!F4-Combined_Data!E4)/((Combined_Data!F3-Combined_Data!F6)-(Combined_Data!E3-Combined_Data!E6)),0)</f>
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="E3" s="78">
+        <f>IFERROR((Combined_Data!G4-Combined_Data!F4)/((Combined_Data!G3-Combined_Data!G6)-(Combined_Data!F3-Combined_Data!F6)),0)</f>
+        <v>-5.882352941176471</v>
+      </c>
+      <c r="F3" s="78">
+        <f>IFERROR((Combined_Data!H4-Combined_Data!G4)/((Combined_Data!H3-Combined_Data!H6)-(Combined_Data!G3-Combined_Data!G6)),0)</f>
+        <v>-5.8823529411764728</v>
+      </c>
+      <c r="G3" s="78">
+        <f>IFERROR((Combined_Data!I4-Combined_Data!H4)/((Combined_Data!I3-Combined_Data!I6)-(Combined_Data!H3-Combined_Data!H6)),0)</f>
+        <v>-13.36898395721925</v>
+      </c>
+      <c r="H3" s="78">
+        <f>IFERROR((Combined_Data!J4-Combined_Data!I4)/((Combined_Data!J3-Combined_Data!J6)-(Combined_Data!I3-Combined_Data!I6)),0)</f>
+        <v>-11.764705882352915</v>
+      </c>
+      <c r="I3" s="78">
+        <f>IFERROR((Combined_Data!K4-Combined_Data!J4)/((Combined_Data!K3-Combined_Data!K6)-(Combined_Data!J3-Combined_Data!J6)),0)</f>
+        <v>-11.764705882352942</v>
+      </c>
+      <c r="J3" s="78">
+        <f>IFERROR((Combined_Data!L4-Combined_Data!K4)/((Combined_Data!L3-Combined_Data!L6)-(Combined_Data!K3-Combined_Data!K6)),0)</f>
+        <v>-11.764705882352942</v>
+      </c>
+      <c r="K3" s="78">
+        <f>IFERROR((Combined_Data!M4-Combined_Data!L4)/((Combined_Data!M3-Combined_Data!M6)-(Combined_Data!L3-Combined_Data!L6)),0)</f>
+        <v>-11.764705882352938</v>
+      </c>
+      <c r="L3" s="78">
+        <f>IFERROR((Combined_Data!N4-Combined_Data!M4)/((Combined_Data!N3-Combined_Data!N6)-(Combined_Data!M3-Combined_Data!M6)),0)</f>
+        <v>-11.764705882352938</v>
+      </c>
+      <c r="M3" s="78">
+        <f>IFERROR((Combined_Data!O4-Combined_Data!N4)/((Combined_Data!O3-Combined_Data!O6)-(Combined_Data!N3-Combined_Data!N6)),0)</f>
+        <v>-0.75093867334167697</v>
+      </c>
+      <c r="N3" s="78">
+        <f>IFERROR((Combined_Data!P4-Combined_Data!O4)/((Combined_Data!P3-Combined_Data!P6)-(Combined_Data!O3-Combined_Data!O6)),0)</f>
+        <v>-5.8823529411764728</v>
+      </c>
+      <c r="O3" s="78">
+        <f>IFERROR((Combined_Data!Q4-Combined_Data!P4)/((Combined_Data!Q3-Combined_Data!Q6)-(Combined_Data!P3-Combined_Data!P6)),0)</f>
+        <v>-5.8823529411764719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524424A0-4900-48B7-BD78-D69A5DACE18A}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3480,1494 +11528,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE919156-D2C9-4B06-9340-B05C5DC9D408}">
-  <dimension ref="A1:F50"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D6E869-726B-43B2-84AE-01E987035769}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="34">
-        <f>SUM('2019'!C2:E2)</f>
-        <v>29</v>
-      </c>
-      <c r="D2" s="34">
-        <f>SUM('2019'!F2:H2)</f>
-        <v>98.9</v>
-      </c>
-      <c r="E2" s="34">
-        <f>SUM('2019'!I2:K2)</f>
-        <v>253.6</v>
-      </c>
-      <c r="F2" s="34">
-        <f>SUM('2019'!L2:N2)</f>
-        <v>269.89999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="34">
-        <f>SUM('2019'!C3:E3)</f>
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="34">
-        <f>SUM('2019'!F3:H3)</f>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="E3" s="34">
-        <f>SUM('2019'!I3:K3)</f>
-        <v>3.3400000000000003</v>
-      </c>
-      <c r="F3" s="34">
-        <f>SUM('2019'!L3:N3)</f>
-        <v>10.120000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="34">
-        <f>SUM('2019'!C4:E4)</f>
-        <v>5.8</v>
-      </c>
-      <c r="D4" s="34">
-        <f>SUM('2019'!F4:H4)</f>
-        <v>19.78</v>
-      </c>
-      <c r="E4" s="34">
-        <f>SUM('2019'!I4:K4)</f>
-        <v>50.72</v>
-      </c>
-      <c r="F4" s="34">
-        <f>SUM('2019'!L4:N4)</f>
-        <v>53.980000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="36">
-        <f>SUM('2019'!C5:E5)</f>
-        <v>22.5</v>
-      </c>
-      <c r="D5" s="36">
-        <f>SUM('2019'!F5:H5)</f>
-        <v>76.36</v>
-      </c>
-      <c r="E5" s="36">
-        <f>SUM('2019'!I5:K5)</f>
-        <v>199.54</v>
-      </c>
-      <c r="F5" s="36">
-        <f>SUM('2019'!L5:N5)</f>
-        <v>205.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="34">
-        <f>SUM('2019'!C7:E7)</f>
-        <v>9922.6999999999989</v>
-      </c>
-      <c r="D7" s="34">
-        <f>SUM('2019'!F7:H7)</f>
-        <v>7795.2</v>
-      </c>
-      <c r="E7" s="34">
-        <f>SUM('2019'!I7:K7)</f>
-        <v>9655.4000000000015</v>
-      </c>
-      <c r="F7" s="34">
-        <f>SUM('2019'!L7:N7)</f>
-        <v>10558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="34">
-        <f>SUM('2019'!C8:E8)</f>
-        <v>555.42000000000007</v>
-      </c>
-      <c r="D8" s="34">
-        <f>SUM('2019'!F8:H8)</f>
-        <v>179.62</v>
-      </c>
-      <c r="E8" s="34">
-        <f>SUM('2019'!I8:K8)</f>
-        <v>193.68999999999997</v>
-      </c>
-      <c r="F8" s="34">
-        <f>SUM('2019'!L8:N8)</f>
-        <v>101.28999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="34">
-        <f>SUM('2019'!C9:E9)</f>
-        <v>1984.54</v>
-      </c>
-      <c r="D9" s="34">
-        <f>SUM('2019'!F9:H9)</f>
-        <v>1559.04</v>
-      </c>
-      <c r="E9" s="34">
-        <f>SUM('2019'!I9:K9)</f>
-        <v>1931.08</v>
-      </c>
-      <c r="F9" s="34">
-        <f>SUM('2019'!L9:N9)</f>
-        <v>2111.6000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="36">
-        <f>SUM('2019'!C10:E10)</f>
-        <v>7382.74</v>
-      </c>
-      <c r="D10" s="36">
-        <f>SUM('2019'!F10:H10)</f>
-        <v>6056.54</v>
-      </c>
-      <c r="E10" s="36">
-        <f>SUM('2019'!I10:K10)</f>
-        <v>7530.6299999999992</v>
-      </c>
-      <c r="F10" s="36">
-        <f>SUM('2019'!L10:N10)</f>
-        <v>8345.1099999999988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="34">
-        <f>SUM('2019'!C12:E12)</f>
-        <v>4837.3999999999996</v>
-      </c>
-      <c r="D12" s="34">
-        <f>SUM('2019'!F12:H12)</f>
-        <v>3692.1</v>
-      </c>
-      <c r="E12" s="34">
-        <f>SUM('2019'!I12:K12)</f>
-        <v>2002.5</v>
-      </c>
-      <c r="F12" s="34">
-        <f>SUM('2019'!L12:N12)</f>
-        <v>3639.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="34">
-        <f>SUM('2019'!C13:E13)</f>
-        <v>368.28000000000003</v>
-      </c>
-      <c r="D13" s="34">
-        <f>SUM('2019'!F13:H13)</f>
-        <v>145.75</v>
-      </c>
-      <c r="E13" s="34">
-        <f>SUM('2019'!I13:K13)</f>
-        <v>29.33</v>
-      </c>
-      <c r="F13" s="34">
-        <f>SUM('2019'!L13:N13)</f>
-        <v>59.609999999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="34">
-        <f>SUM('2019'!C14:E14)</f>
-        <v>967.48</v>
-      </c>
-      <c r="D14" s="34">
-        <f>SUM('2019'!F14:H14)</f>
-        <v>738.42000000000007</v>
-      </c>
-      <c r="E14" s="34">
-        <f>SUM('2019'!I14:K14)</f>
-        <v>400.5</v>
-      </c>
-      <c r="F14" s="34">
-        <f>SUM('2019'!L14:N14)</f>
-        <v>727.90000000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="36">
-        <f>SUM('2019'!C15:E15)</f>
-        <v>3501.64</v>
-      </c>
-      <c r="D15" s="36">
-        <f>SUM('2019'!F15:H15)</f>
-        <v>2807.9300000000003</v>
-      </c>
-      <c r="E15" s="36">
-        <f>SUM('2019'!I15:K15)</f>
-        <v>1572.67</v>
-      </c>
-      <c r="F15" s="36">
-        <f>SUM('2019'!L15:N15)</f>
-        <v>2851.9900000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="34">
-        <f>SUM('2019'!C17:E17)</f>
-        <v>2366.1999999999998</v>
-      </c>
-      <c r="D17" s="34">
-        <f>SUM('2019'!F17:H17)</f>
-        <v>1949.6</v>
-      </c>
-      <c r="E17" s="34">
-        <f>SUM('2019'!I17:K17)</f>
-        <v>885.59999999999991</v>
-      </c>
-      <c r="F17" s="34">
-        <f>SUM('2019'!L17:N17)</f>
-        <v>1217.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="34">
-        <f>SUM('2019'!C18:E18)</f>
-        <v>64.539999999999992</v>
-      </c>
-      <c r="D18" s="34">
-        <f>SUM('2019'!F18:H18)</f>
-        <v>26.889999999999997</v>
-      </c>
-      <c r="E18" s="34">
-        <f>SUM('2019'!I18:K18)</f>
-        <v>14.29</v>
-      </c>
-      <c r="F18" s="34">
-        <f>SUM('2019'!L18:N18)</f>
-        <v>42.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="34">
-        <f>SUM('2019'!C19:E19)</f>
-        <v>473.24000000000012</v>
-      </c>
-      <c r="D19" s="34">
-        <f>SUM('2019'!F19:H19)</f>
-        <v>389.92000000000007</v>
-      </c>
-      <c r="E19" s="34">
-        <f>SUM('2019'!I19:K19)</f>
-        <v>177.12</v>
-      </c>
-      <c r="F19" s="34">
-        <f>SUM('2019'!L19:N19)</f>
-        <v>243.44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="36">
-        <f>SUM('2019'!C20:E20)</f>
-        <v>1828.42</v>
-      </c>
-      <c r="D20" s="36">
-        <f>SUM('2019'!F20:H20)</f>
-        <v>1532.79</v>
-      </c>
-      <c r="E20" s="36">
-        <f>SUM('2019'!I20:K20)</f>
-        <v>694.18999999999994</v>
-      </c>
-      <c r="F20" s="36">
-        <f>SUM('2019'!L20:N20)</f>
-        <v>931.59999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="34">
-        <f>SUM('2019'!C22:E22)</f>
-        <v>18741.099999999999</v>
-      </c>
-      <c r="D22" s="34">
-        <f>SUM('2019'!F22:H22)</f>
-        <v>15778.099999999999</v>
-      </c>
-      <c r="E22" s="34">
-        <f>SUM('2019'!I22:K22)</f>
-        <v>5450.2000000000007</v>
-      </c>
-      <c r="F22" s="34">
-        <f>SUM('2019'!L22:N22)</f>
-        <v>5200.8999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="34">
-        <f>SUM('2019'!C23:E23)</f>
-        <v>631.38000000000011</v>
-      </c>
-      <c r="D23" s="34">
-        <f>SUM('2019'!F23:H23)</f>
-        <v>379.27</v>
-      </c>
-      <c r="E23" s="34">
-        <f>SUM('2019'!I23:K23)</f>
-        <v>72.570000000000007</v>
-      </c>
-      <c r="F23" s="34">
-        <f>SUM('2019'!L23:N23)</f>
-        <v>40.379999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="34">
-        <f>SUM('2019'!C24:E24)</f>
-        <v>2534.7975000000001</v>
-      </c>
-      <c r="D24" s="34">
-        <f>SUM('2019'!F24:H24)</f>
-        <v>2868.6915000000004</v>
-      </c>
-      <c r="E24" s="34">
-        <f>SUM('2019'!I24:K24)</f>
-        <v>2020.2695000000003</v>
-      </c>
-      <c r="F24" s="34">
-        <f>SUM('2019'!L24:N24)</f>
-        <v>1802.2550000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="36">
-        <f>SUM('2019'!C25:E25)</f>
-        <v>15574.922499999999</v>
-      </c>
-      <c r="D25" s="36">
-        <f>SUM('2019'!F25:H25)</f>
-        <v>12530.138500000001</v>
-      </c>
-      <c r="E25" s="36">
-        <f>SUM('2019'!I25:K25)</f>
-        <v>3357.3604999999998</v>
-      </c>
-      <c r="F25" s="36">
-        <f>SUM('2019'!L25:N25)</f>
-        <v>3358.2649999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="34">
-        <f>SUM('2019'!C27:E27)</f>
-        <v>5280</v>
-      </c>
-      <c r="D27" s="34">
-        <f>SUM('2019'!F27:H27)</f>
-        <v>2302</v>
-      </c>
-      <c r="E27" s="34">
-        <f>SUM('2019'!I27:K27)</f>
-        <v>1318</v>
-      </c>
-      <c r="F27" s="34">
-        <f>SUM('2019'!L27:N27)</f>
-        <v>1585.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="34">
-        <f>SUM('2019'!C28:E28)</f>
-        <v>263.95</v>
-      </c>
-      <c r="D28" s="34">
-        <f>SUM('2019'!F28:H28)</f>
-        <v>21.549999999999997</v>
-      </c>
-      <c r="E28" s="34">
-        <f>SUM('2019'!I28:K28)</f>
-        <v>2.54</v>
-      </c>
-      <c r="F28" s="34">
-        <f>SUM('2019'!L28:N28)</f>
-        <v>84.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
-      <c r="B29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="34">
-        <f>SUM('2019'!C29:E29)</f>
-        <v>1056</v>
-      </c>
-      <c r="D29" s="34">
-        <f>SUM('2019'!F29:H29)</f>
-        <v>460.40000000000003</v>
-      </c>
-      <c r="E29" s="34">
-        <f>SUM('2019'!I29:K29)</f>
-        <v>263.60000000000002</v>
-      </c>
-      <c r="F29" s="34">
-        <f>SUM('2019'!L29:N29)</f>
-        <v>317.10000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="36">
-        <f>SUM('2019'!C30:E30)</f>
-        <v>3960.05</v>
-      </c>
-      <c r="D30" s="36">
-        <f>SUM('2019'!F30:H30)</f>
-        <v>1820.0500000000002</v>
-      </c>
-      <c r="E30" s="36">
-        <f>SUM('2019'!I30:K30)</f>
-        <v>1051.8599999999999</v>
-      </c>
-      <c r="F30" s="36">
-        <f>SUM('2019'!L30:N30)</f>
-        <v>1184.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="34">
-        <f>SUM('2019'!C32:E32)</f>
-        <v>11432.899999999998</v>
-      </c>
-      <c r="D32" s="34">
-        <f>SUM('2019'!F32:H32)</f>
-        <v>9705.3999999999978</v>
-      </c>
-      <c r="E32" s="34">
-        <f>SUM('2019'!I32:K32)</f>
-        <v>9181.2999999999993</v>
-      </c>
-      <c r="F32" s="34">
-        <f>SUM('2019'!L32:N32)</f>
-        <v>11176.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="34">
-        <f>SUM('2019'!C33:E33)</f>
-        <v>678.01</v>
-      </c>
-      <c r="D33" s="34">
-        <f>SUM('2019'!F33:H33)</f>
-        <v>341.04</v>
-      </c>
-      <c r="E33" s="34">
-        <f>SUM('2019'!I33:K33)</f>
-        <v>187.60000000000002</v>
-      </c>
-      <c r="F33" s="34">
-        <f>SUM('2019'!L33:N33)</f>
-        <v>163.56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="34">
-        <f>SUM('2019'!C34:E34)</f>
-        <v>2286.58</v>
-      </c>
-      <c r="D34" s="34">
-        <f>SUM('2019'!F34:H34)</f>
-        <v>1941.08</v>
-      </c>
-      <c r="E34" s="34">
-        <f>SUM('2019'!I34:K34)</f>
-        <v>1836.2600000000002</v>
-      </c>
-      <c r="F34" s="34">
-        <f>SUM('2019'!L34:N34)</f>
-        <v>2235.2800000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="36">
-        <f>SUM('2019'!C35:E35)</f>
-        <v>8468.31</v>
-      </c>
-      <c r="D35" s="36">
-        <f>SUM('2019'!F35:H35)</f>
-        <v>7423.2799999999988</v>
-      </c>
-      <c r="E35" s="36">
-        <f>SUM('2019'!I35:K35)</f>
-        <v>7157.4400000000005</v>
-      </c>
-      <c r="F35" s="36">
-        <f>SUM('2019'!L35:N35)</f>
-        <v>8777.56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="34">
-        <f>SUM('2019'!C37:E37)</f>
-        <v>533</v>
-      </c>
-      <c r="D37" s="34">
-        <f>SUM('2019'!F37:H37)</f>
-        <v>633.79999999999995</v>
-      </c>
-      <c r="E37" s="34">
-        <f>SUM('2019'!I37:K37)</f>
-        <v>3489.2</v>
-      </c>
-      <c r="F37" s="34">
-        <f>SUM('2019'!L37:N37)</f>
-        <v>6346.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="34">
-        <f>SUM('2019'!C38:E38)</f>
-        <v>79.760000000000019</v>
-      </c>
-      <c r="D38" s="34">
-        <f>SUM('2019'!F38:H38)</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E38" s="34">
-        <f>SUM('2019'!I38:K38)</f>
-        <v>64.699999999999989</v>
-      </c>
-      <c r="F38" s="34">
-        <f>SUM('2019'!L38:N38)</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="34">
-        <f>SUM('2019'!C39:E39)</f>
-        <v>106.60000000000002</v>
-      </c>
-      <c r="D39" s="34">
-        <f>SUM('2019'!F39:H39)</f>
-        <v>126.76</v>
-      </c>
-      <c r="E39" s="34">
-        <f>SUM('2019'!I39:K39)</f>
-        <v>697.83999999999992</v>
-      </c>
-      <c r="F39" s="34">
-        <f>SUM('2019'!L39:N39)</f>
-        <v>1269.2800000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="34">
-        <f>SUM('2019'!C40:E40)</f>
-        <v>346.64</v>
-      </c>
-      <c r="D40" s="34">
-        <f>SUM('2019'!F40:H40)</f>
-        <v>497.74</v>
-      </c>
-      <c r="E40" s="34">
-        <f>SUM('2019'!I40:K40)</f>
-        <v>2726.66</v>
-      </c>
-      <c r="F40" s="34">
-        <f>SUM('2019'!L40:N40)</f>
-        <v>4993.87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="34">
-        <f>SUM('2019'!C42:E42)</f>
-        <v>16757.400000000001</v>
-      </c>
-      <c r="D42" s="34">
-        <f>SUM('2019'!F42:H42)</f>
-        <v>13093.399999999998</v>
-      </c>
-      <c r="E42" s="34">
-        <f>SUM('2019'!I42:K42)</f>
-        <v>22715.7</v>
-      </c>
-      <c r="F42" s="34">
-        <f>SUM('2019'!L42:N42)</f>
-        <v>24638.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="34">
-        <f>SUM('2019'!C43:E43)</f>
-        <v>601.12</v>
-      </c>
-      <c r="D43" s="34">
-        <f>SUM('2019'!F43:H43)</f>
-        <v>351.69</v>
-      </c>
-      <c r="E43" s="34">
-        <f>SUM('2019'!I43:K43)</f>
-        <v>450.91999999999996</v>
-      </c>
-      <c r="F43" s="34">
-        <f>SUM('2019'!L43:N43)</f>
-        <v>214.88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="34">
-        <f>SUM('2019'!C44:E44)</f>
-        <v>8394.5745000000006</v>
-      </c>
-      <c r="D44" s="34">
-        <f>SUM('2019'!F44:H44)</f>
-        <v>8521.6005000000023</v>
-      </c>
-      <c r="E44" s="34">
-        <f>SUM('2019'!I44:K44)</f>
-        <v>8078.201500000001</v>
-      </c>
-      <c r="F44" s="34">
-        <f>SUM('2019'!L44:N44)</f>
-        <v>6782.7640000000019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="36">
-        <f>SUM('2019'!C45:E45)</f>
-        <v>7761.7054999999982</v>
-      </c>
-      <c r="D45" s="36">
-        <f>SUM('2019'!F45:H45)</f>
-        <v>4220.1094999999987</v>
-      </c>
-      <c r="E45" s="36">
-        <f>SUM('2019'!I45:K45)</f>
-        <v>14186.5785</v>
-      </c>
-      <c r="F45" s="36">
-        <f>SUM('2019'!L45:N45)</f>
-        <v>17641.255999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="34">
-        <f>SUM('2019'!C47:E47)</f>
-        <v>48846.928</v>
-      </c>
-      <c r="D47" s="34">
-        <f>SUM('2019'!F47:H47)</f>
-        <v>36964.937999999995</v>
-      </c>
-      <c r="E47" s="34">
-        <f>SUM('2019'!I47:K47)</f>
-        <v>38476.929000000004</v>
-      </c>
-      <c r="F47" s="34">
-        <f>SUM('2019'!L47:N47)</f>
-        <v>48289.750999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="B48" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="34">
-        <f>SUM('2019'!C48:E48)</f>
-        <v>66000</v>
-      </c>
-      <c r="D48" s="34">
-        <f>SUM('2019'!F48:H48)</f>
-        <v>66000</v>
-      </c>
-      <c r="E48" s="34">
-        <f>SUM('2019'!I48:K48)</f>
-        <v>66000</v>
-      </c>
-      <c r="F48" s="34">
-        <f>SUM('2019'!L48:N48)</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="35">
-        <f>SUM('2019'!C49:E49)</f>
-        <v>-17153.072000000004</v>
-      </c>
-      <c r="D49" s="35">
-        <f>SUM('2019'!F49:H49)</f>
-        <v>-29035.062000000005</v>
-      </c>
-      <c r="E49" s="35">
-        <f>SUM('2019'!I49:K49)</f>
-        <v>-27523.071</v>
-      </c>
-      <c r="F49" s="35">
-        <f>SUM('2019'!L49:N49)</f>
-        <v>-17710.249000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A30"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7275B154-43D1-4CDC-9D9D-8221673A9FE2}">
-  <dimension ref="A1:C50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C1" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="37">
-        <f>SUM('2018'!C2:E2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="37">
-        <f>SUM('2018'!C3:E3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="37">
-        <f>SUM('2018'!C4:E4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="38">
-        <f>SUM('2018'!C5:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="37">
-        <f>SUM('2018'!C7:E7)</f>
-        <v>9368.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="37">
-        <f>SUM('2018'!C8:E8)</f>
-        <v>623.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="37">
-        <f>SUM('2018'!C9:E9)</f>
-        <v>1873.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="38">
-        <f>SUM('2018'!C10:E10)</f>
-        <v>6871.1100000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="37">
-        <f>SUM('2018'!C12:E12)</f>
-        <v>4196.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="37">
-        <f>SUM('2018'!C13:E13)</f>
-        <v>391.98999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="37">
-        <f>SUM('2018'!C14:E14)</f>
-        <v>839.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="38">
-        <f>SUM('2018'!C15:E15)</f>
-        <v>2965.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="37">
-        <f>SUM('2018'!C17:E17)</f>
-        <v>2570.1999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="37">
-        <f>SUM('2018'!C18:E18)</f>
-        <v>88.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="37">
-        <f>SUM('2018'!C19:E19)</f>
-        <v>514.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="38">
-        <f>SUM('2018'!C20:E20)</f>
-        <v>1967.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="37">
-        <f>SUM('2018'!C22:E22)</f>
-        <v>16953.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="37">
-        <f>SUM('2018'!C23:E23)</f>
-        <v>786.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="37">
-        <f>SUM('2018'!C24:E24)</f>
-        <v>2745.7534999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="38">
-        <f>SUM('2018'!C25:E25)</f>
-        <v>13421.686500000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="37">
-        <f>SUM('2018'!C27:E27)</f>
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="37">
-        <f>SUM('2018'!C28:E28)</f>
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
-      <c r="B29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="37">
-        <f>SUM('2018'!C29:E29)</f>
-        <v>264.40000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="38">
-        <f>SUM('2018'!C30:E30)</f>
-        <v>998.69999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="37">
-        <f>SUM('2018'!C32:E32)</f>
-        <v>7796.2999999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="37">
-        <f>SUM('2018'!C33:E33)</f>
-        <v>670.57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="37">
-        <f>SUM('2018'!C34:E34)</f>
-        <v>1559.26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="38">
-        <f>SUM('2018'!C35:E35)</f>
-        <v>5566.4699999999993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="37">
-        <f>SUM('2018'!C37:E37)</f>
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="37">
-        <f>SUM('2018'!C38:E38)</f>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="37">
-        <f>SUM('2018'!C39:E39)</f>
-        <v>86.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="38">
-        <f>SUM('2018'!C40:E40)</f>
-        <v>329.59999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="37">
-        <f>SUM('2018'!C42:E42)</f>
-        <v>14292.900000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="37">
-        <f>SUM('2018'!C43:E43)</f>
-        <v>848.36000000000013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="37">
-        <f>SUM('2018'!C44:E44)</f>
-        <v>8794.4370000000017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="38">
-        <f>SUM('2018'!C45:E45)</f>
-        <v>4650.1029999999992</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="37">
-        <f>SUM('2018'!C47:E47)</f>
-        <v>36770.859499999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="B48" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="37">
-        <f>SUM('2018'!C48:E48)</f>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="35">
-        <f>SUM('2018'!C49:E49)</f>
-        <v>-29229.140500000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>